--- a/DataIntermediate/resultados_regresiones.xlsx
+++ b/DataIntermediate/resultados_regresiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="R2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1633797165198528</v>
+        <v>0.1633797165198531</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.268174153801026</v>
+        <v>0.2681741538010264</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.23274428111255</v>
+        <v>0.2327442811125501</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3487128187823491</v>
+        <v>0.3487128187823492</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1583347564598894</v>
+        <v>0.1583347564598896</v>
       </c>
     </row>
     <row r="10">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01887257664600928</v>
+        <v>0.01887257664600961</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1417678712757489</v>
+        <v>0.1417678712757492</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1002182933047178</v>
+        <v>0.1002182933047179</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2362177602083912</v>
+        <v>0.2362177602083914</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0129562143938704</v>
+        <v>0.01295621439387062</v>
       </c>
     </row>
     <row r="10">
@@ -689,64 +689,64 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4.00755247427068e-05</v>
+        <v>4.00755247427071e-05</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7068379325017994</v>
+        <v>0.7068379325017954</v>
       </c>
       <c r="D1" t="n">
-        <v>0.02992983341058821</v>
+        <v>0.02992983341058839</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1407262542433185</v>
+        <v>0.1407262542433192</v>
       </c>
       <c r="F1" t="n">
-        <v>0.2742584340714386</v>
+        <v>0.2742584340714384</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9102224425934142</v>
+        <v>0.910222442593408</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5169380628818115</v>
+        <v>0.5169380628818178</v>
       </c>
       <c r="I1" t="n">
-        <v>0.4509907377012583</v>
+        <v>0.4509907377012581</v>
       </c>
       <c r="J1" t="n">
-        <v>0.0409474435643237</v>
+        <v>0.04094744356432451</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6004784490284638</v>
+        <v>0.6004784490284686</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2367454733067574</v>
+        <v>0.2367454733067542</v>
       </c>
       <c r="M1" t="n">
-        <v>0.0884223339325132</v>
+        <v>0.0884223339325131</v>
       </c>
       <c r="N1" t="n">
-        <v>0.6890166017581263</v>
+        <v>0.6890166017581282</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8374363546028417</v>
+        <v>0.8374363546028423</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6738285520833698</v>
+        <v>0.673828552083367</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.5761682740985652</v>
+        <v>0.5761682740985654</v>
       </c>
       <c r="R1" t="n">
-        <v>0.003269936357667117</v>
+        <v>0.003269936357667177</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1986556256475436</v>
+        <v>0.1986556256475429</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6406648697044905</v>
+        <v>0.6406648697044867</v>
       </c>
       <c r="U1" t="n">
-        <v>0.2081041820332367</v>
+        <v>0.2081041820332391</v>
       </c>
     </row>
     <row r="2">
@@ -756,64 +756,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002645074185903675</v>
+        <v>0.002645074185903679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03218198245488626</v>
+        <v>0.03218198245488594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4080310479324237</v>
+        <v>0.4080310479324254</v>
       </c>
       <c r="E2" t="n">
         <v>0.0453073229977929</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5001616827108746</v>
+        <v>0.5001616827108711</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5400448440232457</v>
+        <v>0.5400448440232533</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8634415609421445</v>
+        <v>0.8634415609421537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5283717545349889</v>
+        <v>0.5283717545349902</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8769124218674813</v>
+        <v>0.8769124218674806</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05110513998194765</v>
+        <v>0.05110513998194839</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6261413330681069</v>
+        <v>0.6261413330680945</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1854692753008992</v>
+        <v>0.185469275300898</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2999922334886875</v>
+        <v>0.2999922334886886</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8089445983036034</v>
+        <v>0.8089445983036048</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1846882199301716</v>
+        <v>0.1846882199301725</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4788096445990004</v>
+        <v>0.4788096445990003</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7256974496700095</v>
+        <v>0.7256974496700122</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7227637024500109</v>
+        <v>0.7227637024500115</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9813288506846931</v>
+        <v>0.9813288506846876</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9060043835222564</v>
+        <v>0.9060043835222512</v>
       </c>
     </row>
     <row r="3">
@@ -823,64 +823,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945688118866688</v>
+        <v>0.9945688118866698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7926788323681966</v>
+        <v>0.7926788323681933</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3243341118915266</v>
+        <v>0.3243341118915276</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9005073870947169</v>
+        <v>0.900507387094717</v>
       </c>
       <c r="F3" t="n">
-        <v>0.179977969045673</v>
+        <v>0.1799779690456735</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06011532677852329</v>
+        <v>0.06011532677852445</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05870557222267388</v>
+        <v>0.05870557222267347</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6729548651802879</v>
+        <v>0.6729548651802877</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7330931233943021</v>
+        <v>0.7330931233943059</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1400657213069368</v>
+        <v>0.1400657213069377</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04490455557264588</v>
+        <v>0.04490455557264642</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007946613137866923</v>
+        <v>0.007946613137866897</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2513240139996692</v>
+        <v>0.2513240139996701</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2088406038553605</v>
+        <v>0.2088406038553618</v>
       </c>
       <c r="P3" t="n">
-        <v>0.741655837740905</v>
+        <v>0.7416558377409055</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8379011190353234</v>
+        <v>0.8379011190353207</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08323944181620262</v>
+        <v>0.08323944181620309</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9475644119678605</v>
+        <v>0.9475644119678593</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05988653500434928</v>
+        <v>0.05988653500434948</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6163599298820017</v>
+        <v>0.6163599298820009</v>
       </c>
     </row>
     <row r="4">
@@ -890,64 +890,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5369493879595882</v>
+        <v>0.5369493879595879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2830907615378621</v>
+        <v>0.2830907615378633</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8215877221209352</v>
+        <v>0.8215877221209388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8438003832547893</v>
+        <v>0.8438003832547869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2559991894965702</v>
+        <v>0.255999189496571</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09559344493621917</v>
+        <v>0.09559344493622066</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6278907063985707</v>
+        <v>0.6278907063985727</v>
       </c>
       <c r="I4" t="n">
-        <v>0.565051521893057</v>
+        <v>0.5650515218930572</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2794578274342027</v>
+        <v>0.2794578274342044</v>
       </c>
       <c r="K4" t="n">
-        <v>0.186637373533238</v>
+        <v>0.1866373735332381</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5002643462601555</v>
+        <v>0.5002643462601564</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05533256693296051</v>
+        <v>0.05533256693296055</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0006896482744836326</v>
+        <v>0.0006896482744836373</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2808853731145509</v>
+        <v>0.2808853731145511</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0164098066453841</v>
+        <v>0.01640980664538396</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3093144483030168</v>
+        <v>0.3093144483030159</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2034135165970737</v>
+        <v>0.2034135165970749</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8892740555109873</v>
+        <v>0.8892740555109864</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9399952780579691</v>
+        <v>0.9399952780579717</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06782885886504919</v>
+        <v>0.06782885886504907</v>
       </c>
     </row>
     <row r="5">
@@ -957,64 +957,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6117942391759907</v>
+        <v>0.6117942391759921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1487968486895587</v>
+        <v>0.1487968486895597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2340228302688486</v>
+        <v>0.2340228302688489</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9072863429668818</v>
+        <v>0.9072863429668848</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4445966546326785</v>
+        <v>0.4445966546326808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8922732827386454</v>
+        <v>0.8922732827386483</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05718300138255247</v>
+        <v>0.05718300138255217</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3200439573441765</v>
+        <v>0.3200439573441771</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8669316763264272</v>
+        <v>0.866931676326423</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6912954455932816</v>
+        <v>0.6912954455932823</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7421999256642107</v>
+        <v>0.7421999256642098</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008769435082888492</v>
+        <v>0.0008769435082888595</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5828988876383969</v>
+        <v>0.5828988876384</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4515817450072788</v>
+        <v>0.4515817450072783</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6749062893461721</v>
+        <v>0.6749062893461719</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9462462081179833</v>
+        <v>0.9462462081179821</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2845537276839284</v>
+        <v>0.2845537276839289</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3482744816232674</v>
+        <v>0.3482744816232678</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8190187501833202</v>
+        <v>0.8190187501833215</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4014438992086047</v>
+        <v>0.401443899208605</v>
       </c>
     </row>
     <row r="6">
@@ -1024,64 +1024,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3173360395885775</v>
+        <v>0.3173360395885771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8986921529264688</v>
+        <v>0.8986921529264735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3802999228835977</v>
+        <v>0.3802999228835987</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4624299886525489</v>
+        <v>0.4624299886525474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4286283719146109</v>
+        <v>0.4286283719146096</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6569020775370265</v>
+        <v>0.6569020775370316</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5853751264808764</v>
+        <v>0.5853751264808792</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9776302429834707</v>
+        <v>0.9776302429834713</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3126082993895312</v>
+        <v>0.3126082993895299</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9513363615709008</v>
+        <v>0.9513363615709037</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6611841476526144</v>
+        <v>0.6611841476526106</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02316269948786348</v>
+        <v>0.02316269948786338</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1712285298202679</v>
+        <v>0.1712285298202687</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3077687013513086</v>
+        <v>0.307768701351309</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7684476159637209</v>
+        <v>0.7684476159637179</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6174393891886292</v>
+        <v>0.6174393891886316</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9833386233623237</v>
+        <v>0.9833386233623264</v>
       </c>
       <c r="S6" t="n">
-        <v>0.543409874324811</v>
+        <v>0.5434098743248124</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3239971864312134</v>
+        <v>0.323997186431213</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9262915079029184</v>
+        <v>0.9262915079029224</v>
       </c>
     </row>
     <row r="7">
@@ -1091,64 +1091,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1624893589915481</v>
+        <v>0.1624893589915478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8131271284717937</v>
+        <v>0.8131271284717971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7609034489414657</v>
+        <v>0.7609034489414649</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9714252399703568</v>
+        <v>0.9714252399703591</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1993814590325207</v>
+        <v>0.1993814590325213</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6798848522848402</v>
+        <v>0.6798848522848351</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9117449554434748</v>
+        <v>0.9117449554434793</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7701861506612991</v>
+        <v>0.7701861506612999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8660588842835131</v>
+        <v>0.8660588842835159</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5612111219428062</v>
+        <v>0.5612111219428091</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1259596451665234</v>
+        <v>0.1259596451665229</v>
       </c>
       <c r="M7" t="n">
         <v>0.02319344635691789</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3154009600794337</v>
+        <v>0.3154009600794341</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6631909894733371</v>
+        <v>0.6631909894733368</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6411364791697726</v>
+        <v>0.6411364791697738</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3176054189908309</v>
+        <v>0.3176054189908321</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4848775887830613</v>
+        <v>0.4848775887830626</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8426815305802341</v>
+        <v>0.8426815305802335</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5960111730679447</v>
+        <v>0.5960111730679436</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2972179968290932</v>
+        <v>0.2972179968290954</v>
       </c>
     </row>
     <row r="8">
@@ -1158,64 +1158,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07209572435745107</v>
+        <v>0.0720957243574515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05857780415635051</v>
+        <v>0.05857780415635086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7745033611937048</v>
+        <v>0.7745033611937034</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6099700258092836</v>
+        <v>0.6099700258092876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3173595518837796</v>
+        <v>0.3173595518837829</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2206882735967188</v>
+        <v>0.2206882735967192</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3833518829521548</v>
+        <v>0.3833518829521563</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04040274805474822</v>
+        <v>0.0404027480547484</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6834028632741747</v>
+        <v>0.6834028632741794</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6026250988249089</v>
+        <v>0.6026250988249078</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4587341480679478</v>
+        <v>0.458734148067951</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0004176458920286368</v>
+        <v>0.0004176458920286408</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09043827455195368</v>
+        <v>0.09043827455195456</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9851419941382917</v>
+        <v>0.985141994138292</v>
       </c>
       <c r="P8" t="n">
-        <v>0.389108326156368</v>
+        <v>0.3891083261563678</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9000545166320066</v>
+        <v>0.9000545166320074</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6938036783126469</v>
+        <v>0.6938036783126476</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05130456822602498</v>
+        <v>0.05130456822602505</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4825424835263763</v>
+        <v>0.4825424835263791</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2144833143165437</v>
+        <v>0.2144833143165428</v>
       </c>
     </row>
     <row r="9">
@@ -1225,64 +1225,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05502437684639472</v>
+        <v>0.05502437684639464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6135549197241548</v>
+        <v>0.6135549197241521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8406509478194866</v>
+        <v>0.8406509478194905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5087173312499125</v>
+        <v>0.5087173312499108</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3598790231569859</v>
+        <v>0.3598790231569851</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9919075707361245</v>
+        <v>0.9919075707361162</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5153937716698336</v>
+        <v>0.5153937716698385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3378062818310531</v>
+        <v>0.3378062818310523</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7885180262315477</v>
+        <v>0.7885180262315475</v>
       </c>
       <c r="K9" t="n">
-        <v>0.768471159370316</v>
+        <v>0.768471159370312</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1453935957441724</v>
+        <v>0.1453935957441712</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04833063294771912</v>
+        <v>0.04833063294771878</v>
       </c>
       <c r="N9" t="n">
-        <v>0.286233541297233</v>
+        <v>0.2862335412972336</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5813621941671679</v>
+        <v>0.5813621941671678</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5329551387885265</v>
+        <v>0.5329551387885273</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3514007776902055</v>
+        <v>0.3514007776902066</v>
       </c>
       <c r="R9" t="n">
-        <v>0.833627445728691</v>
+        <v>0.833627445728694</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9959172035252276</v>
+        <v>0.9959172035252303</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5101741140416747</v>
+        <v>0.5101741140416725</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5744893767829458</v>
+        <v>0.5744893767829417</v>
       </c>
     </row>
     <row r="10">
@@ -1292,64 +1292,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3075104910414613</v>
+        <v>0.3075104910414607</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9910845616514836</v>
+        <v>0.9910845616514798</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8077369997119608</v>
+        <v>0.8077369997119616</v>
       </c>
       <c r="E10" t="n">
-        <v>0.823985943646529</v>
+        <v>0.8239859436465266</v>
       </c>
       <c r="F10" t="n">
         <v>0.2838179115371484</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9653593234973439</v>
+        <v>0.9653593234973374</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9534382793861015</v>
+        <v>0.9534382793860976</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8048022899787721</v>
+        <v>0.8048022899787729</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8887035516100513</v>
+        <v>0.8887035516100485</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6391436083720226</v>
+        <v>0.6391436083720252</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3284026431743905</v>
+        <v>0.3284026431743886</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0154267586256702</v>
+        <v>0.0154267586256701</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1194808748395421</v>
+        <v>0.1194808748395428</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3318155584042917</v>
+        <v>0.3318155584042912</v>
       </c>
       <c r="P10" t="n">
-        <v>0.943229817050523</v>
+        <v>0.9432298170505251</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4332185940664146</v>
+        <v>0.4332185940664164</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9195106766720713</v>
+        <v>0.9195106766720736</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8886747837526893</v>
+        <v>0.8886747837526878</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9770915463813796</v>
+        <v>0.9770915463813787</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2425964393313262</v>
+        <v>0.2425964393313277</v>
       </c>
     </row>
     <row r="11">
@@ -1359,64 +1359,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5029240963405994</v>
+        <v>0.5029240963405986</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2658244254283788</v>
+        <v>0.2658244254283789</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6255500975141787</v>
+        <v>0.6255500975141812</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1278369888866854</v>
+        <v>0.1278369888866852</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6248698313132752</v>
+        <v>0.6248698313132768</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5005215247965287</v>
+        <v>0.5005215247965329</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009928920910173448</v>
+        <v>0.009928920910173548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8270645476751219</v>
+        <v>0.8270645476751211</v>
       </c>
       <c r="J11" t="n">
         <v>0.03744676842325655</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01817297199574427</v>
+        <v>0.01817297199574443</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6608712896262454</v>
+        <v>0.6608712896262432</v>
       </c>
       <c r="M11" t="n">
-        <v>0.101975749143905</v>
+        <v>0.1019757491439043</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5160044928758691</v>
+        <v>0.5160044928758696</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9043140070436173</v>
+        <v>0.9043140070436171</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7346646990324588</v>
+        <v>0.7346646990324607</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5096575718280116</v>
+        <v>0.5096575718280127</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2022966164003586</v>
+        <v>0.2022966164003593</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8725209695587033</v>
+        <v>0.8725209695587061</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8657335101506271</v>
+        <v>0.8657335101506241</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7757902316331162</v>
+        <v>0.7757902316331157</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1417678712757489</v>
+        <v>0.1417678712757492</v>
       </c>
     </row>
     <row r="6">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1002182933047178</v>
+        <v>0.1002182933047179</v>
       </c>
     </row>
     <row r="8">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2362177602083912</v>
+        <v>0.2362177602083914</v>
       </c>
     </row>
     <row r="11">

--- a/DataIntermediate/resultados_regresiones.xlsx
+++ b/DataIntermediate/resultados_regresiones.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2122051111412335</v>
+        <v>0.2394597049830032</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1633797165198531</v>
+        <v>0.1381543427422892</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2780002680132662</v>
+        <v>0.1031342861352562</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2974050843751526</v>
+        <v>0.08339099047053089</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2681741538010264</v>
+        <v>0.2080509554742627</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2327442811125501</v>
+        <v>0.2173628535150991</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1801738035091385</v>
+        <v>0.2320252326344228</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3487128187823492</v>
+        <v>0.2002399647823463</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1583347564598896</v>
+        <v>0.201949175551188</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2270839887879944</v>
+        <v>0.2341718926126117</v>
       </c>
     </row>
     <row r="11">
@@ -531,7 +531,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3001139359653384</v>
+        <v>0.1966689362732731</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PC1_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1786485022881287</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PC2_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.103241716520067</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +580,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.07613144852017395</v>
+        <v>0.108093654025522</v>
       </c>
     </row>
     <row r="2">
@@ -570,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01887257664600961</v>
+        <v>-0.01070990714767883</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1532912233973759</v>
+        <v>-0.05177888262319952</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +610,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1760477807672245</v>
+        <v>-0.07493238390274093</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +620,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1417678712757492</v>
+        <v>0.0712597568743627</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +630,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1002182933047179</v>
+        <v>0.08218007366770719</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +640,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03856746047889881</v>
+        <v>0.099375045544005</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +650,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2362177602083914</v>
+        <v>0.0620995950629335</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +660,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01295621439387062</v>
+        <v>0.06410403314639324</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +670,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09358031412410261</v>
+        <v>0.1018924922456993</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +680,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.179224524904806</v>
+        <v>0.05791175253865666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PC1_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.03677869813789647</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PC2_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.05165289608101231</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,64 +729,64 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4.00755247427071e-05</v>
+        <v>0.02356869770321448</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7068379325017954</v>
+        <v>0.1140914652979554</v>
       </c>
       <c r="D1" t="n">
-        <v>0.02992983341058839</v>
+        <v>0.1377097298855333</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1407262542433192</v>
+        <v>0.01983268924369714</v>
       </c>
       <c r="F1" t="n">
-        <v>0.2742584340714384</v>
+        <v>0.279094783511417</v>
       </c>
       <c r="G1" t="n">
-        <v>0.910222442593408</v>
+        <v>0.01601851688805676</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5169380628818178</v>
+        <v>0.2027855736220495</v>
       </c>
       <c r="I1" t="n">
-        <v>0.4509907377012581</v>
+        <v>0.3279840884660289</v>
       </c>
       <c r="J1" t="n">
-        <v>0.04094744356432451</v>
+        <v>0.5098279821617639</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6004784490284686</v>
+        <v>0.8295291716785737</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2367454733067542</v>
+        <v>0.3070994408478881</v>
       </c>
       <c r="M1" t="n">
-        <v>0.0884223339325131</v>
+        <v>0.2649548992931405</v>
       </c>
       <c r="N1" t="n">
-        <v>0.6890166017581282</v>
+        <v>0.01708844837922609</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8374363546028423</v>
+        <v>0.7105274605592831</v>
       </c>
       <c r="P1" t="n">
-        <v>0.673828552083367</v>
+        <v>0.1080025348561254</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.5761682740985654</v>
+        <v>0.6738722222518517</v>
       </c>
       <c r="R1" t="n">
-        <v>0.003269936357667177</v>
+        <v>0.005811301754194245</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1986556256475429</v>
+        <v>0.9949108774964773</v>
       </c>
       <c r="T1" t="n">
-        <v>0.6406648697044867</v>
+        <v>0.5481781136705638</v>
       </c>
       <c r="U1" t="n">
-        <v>0.2081041820332391</v>
+        <v>0.2318282078730522</v>
       </c>
     </row>
     <row r="2">
@@ -756,64 +796,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002645074185903679</v>
+        <v>0.000175920027568653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03218198245488594</v>
+        <v>0.03439914711858026</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4080310479324254</v>
+        <v>0.8939757135641695</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0453073229977929</v>
+        <v>0.5295278332544251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5001616827108711</v>
+        <v>0.6290759343625354</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5400448440232533</v>
+        <v>0.3108146480628161</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8634415609421537</v>
+        <v>0.3609962527122831</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5283717545349902</v>
+        <v>0.01362361412382098</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8769124218674806</v>
+        <v>0.2330755007335809</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05110513998194839</v>
+        <v>0.4983155863255488</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6261413330680945</v>
+        <v>0.7124736498980617</v>
       </c>
       <c r="M2" t="n">
-        <v>0.185469275300898</v>
+        <v>0.7979225099524883</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2999922334886886</v>
+        <v>0.7888896861765775</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8089445983036048</v>
+        <v>0.4120380224446271</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1846882199301725</v>
+        <v>0.2065369941509637</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4788096445990003</v>
+        <v>0.6538248131603261</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7256974496700122</v>
+        <v>0.1452597235280708</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7227637024500115</v>
+        <v>0.2643472320671358</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9813288506846876</v>
+        <v>0.9760454433431593</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9060043835222512</v>
+        <v>0.2947887313979854</v>
       </c>
     </row>
     <row r="3">
@@ -823,64 +863,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945688118866698</v>
+        <v>0.01297433761232375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7926788323681933</v>
+        <v>0.9557738621215668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3243341118915276</v>
+        <v>0.6129514462297512</v>
       </c>
       <c r="E3" t="n">
-        <v>0.900507387094717</v>
+        <v>0.8752367314495084</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1799779690456735</v>
+        <v>0.9107381509096331</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06011532677852445</v>
+        <v>0.3242182293937679</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05870557222267347</v>
+        <v>0.2214575214836624</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6729548651802877</v>
+        <v>0.4432080086202841</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7330931233943059</v>
+        <v>0.2378779392747703</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1400657213069377</v>
+        <v>0.8192639994012099</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04490455557264642</v>
+        <v>0.9928735334721697</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007946613137866897</v>
+        <v>0.6875576351381119</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2513240139996701</v>
+        <v>0.836445977199201</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2088406038553618</v>
+        <v>0.02435905188860519</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7416558377409055</v>
+        <v>0.4695368104186347</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8379011190353207</v>
+        <v>0.9457861327876058</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08323944181620309</v>
+        <v>0.9666376164038402</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9475644119678593</v>
+        <v>0.7079544407642588</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05988653500434948</v>
+        <v>0.191665712703529</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6163599298820009</v>
+        <v>0.8690818494112353</v>
       </c>
     </row>
     <row r="4">
@@ -890,64 +930,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5369493879595879</v>
+        <v>0.03989900587626913</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2830907615378633</v>
+        <v>0.8361782335592037</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8215877221209388</v>
+        <v>0.8589898175048041</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8438003832547869</v>
+        <v>0.5865865913260542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.255999189496571</v>
+        <v>0.5285974560946732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09559344493622066</v>
+        <v>0.5237652734000962</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6278907063985727</v>
+        <v>0.1090296685434512</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5650515218930572</v>
+        <v>0.4743735657625162</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2794578274342044</v>
+        <v>0.9373478004544934</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1866373735332381</v>
+        <v>0.7439505612999933</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5002643462601564</v>
+        <v>0.3682444513265415</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05533256693296055</v>
+        <v>0.353016214972159</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0006896482744836373</v>
+        <v>0.940724013161407</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2808853731145511</v>
+        <v>0.5873156833129456</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01640980664538396</v>
+        <v>0.9872958362120248</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3093144483030159</v>
+        <v>0.8489845860141483</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2034135165970749</v>
+        <v>0.8175138879940607</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8892740555109864</v>
+        <v>0.7348270945043209</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9399952780579717</v>
+        <v>0.5569281876514458</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06782885886504907</v>
+        <v>0.5213063349117334</v>
       </c>
     </row>
     <row r="5">
@@ -957,64 +997,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6117942391759921</v>
+        <v>0.9605974261260968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1487968486895597</v>
+        <v>0.07747690553904189</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2340228302688489</v>
+        <v>0.5753779280510609</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9072863429668848</v>
+        <v>0.3905193078780245</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4445966546326808</v>
+        <v>0.8042017439942372</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8922732827386483</v>
+        <v>0.8121885525565303</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05718300138255217</v>
+        <v>0.1426131907762052</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3200439573441771</v>
+        <v>0.6665060489427292</v>
       </c>
       <c r="J5" t="n">
-        <v>0.866931676326423</v>
+        <v>0.5369816842738132</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6912954455932823</v>
+        <v>0.7302412074497763</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7421999256642098</v>
+        <v>0.09629183654404906</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008769435082888595</v>
+        <v>0.1262777205562105</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5828988876384</v>
+        <v>0.4549773010799077</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4515817450072783</v>
+        <v>0.1166713550995123</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6749062893461719</v>
+        <v>0.9606629319935602</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9462462081179821</v>
+        <v>0.3500491876123494</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2845537276839289</v>
+        <v>0.3511453792832223</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3482744816232678</v>
+        <v>0.003149871122376603</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8190187501833215</v>
+        <v>0.4594600297756295</v>
       </c>
       <c r="U5" t="n">
-        <v>0.401443899208605</v>
+        <v>0.7573853759456404</v>
       </c>
     </row>
     <row r="6">
@@ -1024,64 +1064,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3173360395885771</v>
+        <v>0.251428600448681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8986921529264735</v>
+        <v>0.2381787757005454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3802999228835987</v>
+        <v>0.8875343497076242</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4624299886525474</v>
+        <v>0.3389104798136058</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4286283719146096</v>
+        <v>0.1043331211498128</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6569020775370316</v>
+        <v>0.09730930030423432</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5853751264808792</v>
+        <v>0.3195068347366726</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9776302429834713</v>
+        <v>0.02223725356723991</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3126082993895299</v>
+        <v>0.1381391937246056</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9513363615709037</v>
+        <v>0.5635168153132613</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6611841476526106</v>
+        <v>0.8348992062937838</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02316269948786338</v>
+        <v>0.3065585286397042</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1712285298202687</v>
+        <v>0.4636145439369643</v>
       </c>
       <c r="O6" t="n">
-        <v>0.307768701351309</v>
+        <v>0.249366492803533</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7684476159637179</v>
+        <v>0.345574267170894</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6174393891886316</v>
+        <v>0.1854461807426322</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9833386233623264</v>
+        <v>0.07997132413954064</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5434098743248124</v>
+        <v>0.05376758119456115</v>
       </c>
       <c r="T6" t="n">
-        <v>0.323997186431213</v>
+        <v>0.7867088560246033</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9262915079029224</v>
+        <v>0.4024706853196626</v>
       </c>
     </row>
     <row r="7">
@@ -1091,64 +1131,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1624893589915478</v>
+        <v>0.497715707040203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8131271284717971</v>
+        <v>0.0281621703692754</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7609034489414649</v>
+        <v>0.4933361225030193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9714252399703591</v>
+        <v>0.9925316927095245</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1993814590325213</v>
+        <v>0.3144891534675169</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6798848522848351</v>
+        <v>0.4346680011421681</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9117449554434793</v>
+        <v>0.05025965045976288</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7701861506612999</v>
+        <v>0.02811369386629793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8660588842835159</v>
+        <v>0.6018030451417231</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5612111219428091</v>
+        <v>0.9230745307917743</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1259596451665229</v>
+        <v>0.6134406761422306</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02319344635691789</v>
+        <v>0.7424298920691182</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3154009600794341</v>
+        <v>0.5760981556922534</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6631909894733368</v>
+        <v>0.5254903238554246</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6411364791697738</v>
+        <v>0.155492918089817</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3176054189908321</v>
+        <v>0.2737722490981608</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4848775887830626</v>
+        <v>0.01959170555357335</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8426815305802335</v>
+        <v>0.008543959937145061</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5960111730679436</v>
+        <v>0.2605523369671511</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2972179968290954</v>
+        <v>0.4926257988602399</v>
       </c>
     </row>
     <row r="8">
@@ -1158,64 +1198,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0720957243574515</v>
+        <v>0.4534525444903656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05857780415635086</v>
+        <v>0.6061814617606592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7745033611937034</v>
+        <v>0.6691993232830271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6099700258092876</v>
+        <v>0.9982746648078069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3173595518837829</v>
+        <v>0.873630861329116</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2206882735967192</v>
+        <v>0.810678413235053</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3833518829521563</v>
+        <v>0.1220896337946303</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0404027480547484</v>
+        <v>0.2971792328927604</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6834028632741794</v>
+        <v>0.4155135871537883</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6026250988249078</v>
+        <v>0.8503964177890346</v>
       </c>
       <c r="L8" t="n">
-        <v>0.458734148067951</v>
+        <v>0.3170924356164561</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0004176458920286408</v>
+        <v>0.4040831284325985</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09043827455195456</v>
+        <v>0.6103089774675865</v>
       </c>
       <c r="O8" t="n">
-        <v>0.985141994138292</v>
+        <v>0.1316730343756019</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3891083261563678</v>
+        <v>0.57698399287564</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9000545166320074</v>
+        <v>0.2921838927583616</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6938036783126476</v>
+        <v>0.6887064351731507</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05130456822602505</v>
+        <v>0.1631561772094608</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4825424835263791</v>
+        <v>0.3266911444988928</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2144833143165428</v>
+        <v>0.2831547670468068</v>
       </c>
     </row>
     <row r="9">
@@ -1225,64 +1265,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05502437684639464</v>
+        <v>0.3813969045392708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6135549197241521</v>
+        <v>0.05181391565645435</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8406509478194905</v>
+        <v>0.8731031723208528</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5087173312499108</v>
+        <v>0.4912936166816433</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3598790231569851</v>
+        <v>0.05507347795706728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9919075707361162</v>
+        <v>0.4920336837351306</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5153937716698385</v>
+        <v>0.262807168057342</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3378062818310523</v>
+        <v>0.04021087318771355</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7885180262315475</v>
+        <v>0.3946980635767311</v>
       </c>
       <c r="K9" t="n">
-        <v>0.768471159370312</v>
+        <v>0.8777695921092042</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1453935957441712</v>
+        <v>0.7350804697530269</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04833063294771878</v>
+        <v>0.5624941209963163</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2862335412972336</v>
+        <v>0.2769573730261444</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5813621941671678</v>
+        <v>0.6180264074163637</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5329551387885273</v>
+        <v>0.816026864493169</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3514007776902066</v>
+        <v>0.6826296346199328</v>
       </c>
       <c r="R9" t="n">
-        <v>0.833627445728694</v>
+        <v>0.01898316068879009</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9959172035252303</v>
+        <v>0.03735671037250059</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5101741140416725</v>
+        <v>0.1664672062403606</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5744893767829417</v>
+        <v>0.6027907783664066</v>
       </c>
     </row>
     <row r="10">
@@ -1292,64 +1332,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3075104910414607</v>
+        <v>0.7940639010895978</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9910845616514798</v>
+        <v>0.0200727559964494</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8077369997119616</v>
+        <v>0.6950879882982548</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8239859436465266</v>
+        <v>0.5316432004535867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2838179115371484</v>
+        <v>0.2135703992626401</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9653593234973374</v>
+        <v>0.1570924979405199</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9534382793860976</v>
+        <v>0.1107741465668245</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8048022899787729</v>
+        <v>0.01667407716783708</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8887035516100485</v>
+        <v>0.4253165835480589</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6391436083720252</v>
+        <v>0.8848382234427006</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3284026431743886</v>
+        <v>0.9650373355271908</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0154267586256701</v>
+        <v>0.4359361244093038</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1194808748395428</v>
+        <v>0.7159573627879469</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3318155584042912</v>
+        <v>0.2270315525954789</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9432298170505251</v>
+        <v>0.2722979986200679</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4332185940664164</v>
+        <v>0.2981104338207834</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9195106766720736</v>
+        <v>0.03230589677205601</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8886747837526878</v>
+        <v>0.01275842079520876</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9770915463813787</v>
+        <v>0.4399870821874016</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2425964393313277</v>
+        <v>0.6451818743796284</v>
       </c>
     </row>
     <row r="11">
@@ -1359,64 +1399,198 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5029240963405986</v>
+        <v>0.09586632651214427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2658244254283789</v>
+        <v>0.4734289242069822</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6255500975141812</v>
+        <v>0.1203421032602633</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1278369888866852</v>
+        <v>0.3913200491227026</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6248698313132768</v>
+        <v>0.04588673159201297</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5005215247965329</v>
+        <v>0.3744433257257894</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009928920910173548</v>
+        <v>0.8828877134047923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8270645476751211</v>
+        <v>0.6468473195331004</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03744676842325655</v>
+        <v>0.5682745151316376</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01817297199574443</v>
+        <v>0.07964507407627022</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6608712896262432</v>
+        <v>0.9013250111440182</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1019757491439043</v>
+        <v>0.008191613946407942</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5160044928758696</v>
+        <v>0.3985435416492464</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9043140070436171</v>
+        <v>0.926542519737551</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7346646990324607</v>
+        <v>0.7954500959451871</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5096575718280127</v>
+        <v>0.2709270228861537</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2022966164003593</v>
+        <v>0.2172776116247912</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8725209695587061</v>
+        <v>0.05414152832695431</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8657335101506241</v>
+        <v>0.1297908667667701</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7757902316331157</v>
+        <v>0.006275635968299093</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PC1_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9456158263452388</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.413079260149285</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.08981166621482427</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9862181257289455</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.007646350647904521</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9480347167458014</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8995587205008677</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1638931232842862</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.6866682299557609</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9085500162820163</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1769966581651767</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1084828230710855</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.7591002718926592</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8121564927661219</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.4766838043326611</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.8559103980195916</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.7015522132718374</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.09994209315682076</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.1821085111773183</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.04357693631841769</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PC2_Dist_Prod</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4934903387661744</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3320880003106245</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9574828006146109</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2184414918174485</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6712354854279869</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7428510854016157</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5742430279836415</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2400435599236136</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6003911615185875</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05400424380575741</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1365556075278624</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9609630423712985</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.7204508416133227</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6817733075069128</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8167168077641789</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.6739049280259535</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.685935634007808</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9186310554354655</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.2746280194990882</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.7249861304409014</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,64 +1612,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1532912233973759</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1760477807672245</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1417678712757492</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1002182933047179</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2362177602083914</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.179224524904806</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Degree_Rede_EntreajudaLabur</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.108093654025522</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1018924922456993</v>
       </c>
     </row>
   </sheetData>

--- a/DataIntermediate/resultados_regresiones.xlsx
+++ b/DataIntermediate/resultados_regresiones.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2394597049830032</v>
+        <v>0.2081504355021974</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1381543427422892</v>
+        <v>0.1190503486476637</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1031342861352562</v>
+        <v>0.1163728544258805</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08339099047053089</v>
+        <v>0.07045629848326995</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2080509554742627</v>
+        <v>0.2145101522065842</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2173628535150991</v>
+        <v>0.1562071958200355</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2320252326344228</v>
+        <v>0.25104487388797</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2002399647823463</v>
+        <v>0.1812944422407019</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.201949175551188</v>
+        <v>0.1719209350006222</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2341718926126117</v>
+        <v>0.2228495463631275</v>
       </c>
     </row>
     <row r="11">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1966689362732731</v>
+        <v>0.1637425810188008</v>
       </c>
     </row>
     <row r="12">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1786485022881287</v>
+        <v>0.1159061130008155</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.103241716520067</v>
+        <v>0.1217906238110491</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Avg_Distancia_casas_parcelas</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.08550346447630131</v>
       </c>
     </row>
   </sheetData>
@@ -565,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +590,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.108093654025522</v>
+        <v>0.07012161233285552</v>
       </c>
     </row>
     <row r="2">
@@ -590,7 +600,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01070990714767883</v>
+        <v>-0.03450968232200968</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +610,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05177888262319952</v>
+        <v>-0.03765389572006694</v>
       </c>
     </row>
     <row r="4">
@@ -610,7 +620,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07493238390274093</v>
+        <v>-0.09157425499212346</v>
       </c>
     </row>
     <row r="5">
@@ -620,7 +630,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0712597568743627</v>
+        <v>0.07758990350864925</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +640,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08218007366770719</v>
+        <v>0.009124046467564595</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +650,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.099375045544005</v>
+        <v>0.1204930629143134</v>
       </c>
     </row>
     <row r="8">
@@ -650,7 +660,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0620995950629335</v>
+        <v>0.03858429914504435</v>
       </c>
     </row>
     <row r="9">
@@ -660,7 +670,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06410403314639324</v>
+        <v>0.02757687779889573</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +680,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1018924922456993</v>
+        <v>0.08738295352734227</v>
       </c>
     </row>
     <row r="11">
@@ -680,7 +690,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05791175253865666</v>
+        <v>0.01797293917804121</v>
       </c>
     </row>
     <row r="12">
@@ -690,7 +700,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03677869813789647</v>
+        <v>-0.03820199574216154</v>
       </c>
     </row>
     <row r="13">
@@ -700,7 +710,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05165289608101231</v>
+        <v>-0.03129174451546524</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Avg_Distancia_casas_parcelas</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.07390418850489389</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,64 +749,64 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.02356869770321448</v>
+        <v>0.01169214795743071</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1140914652979554</v>
+        <v>0.1775396715912501</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1377097298855333</v>
+        <v>0.02041353705863544</v>
       </c>
       <c r="E1" t="n">
-        <v>0.01983268924369714</v>
+        <v>0.1486335250739482</v>
       </c>
       <c r="F1" t="n">
-        <v>0.279094783511417</v>
+        <v>0.1341930646727529</v>
       </c>
       <c r="G1" t="n">
-        <v>0.01601851688805676</v>
+        <v>0.09591264411636424</v>
       </c>
       <c r="H1" t="n">
-        <v>0.2027855736220495</v>
+        <v>0.2263419325853078</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3279840884660289</v>
+        <v>0.3728372057278631</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5098279821617639</v>
+        <v>0.7551154035380674</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8295291716785737</v>
+        <v>0.9360921880801402</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3070994408478881</v>
+        <v>0.3463177795372145</v>
       </c>
       <c r="M1" t="n">
-        <v>0.2649548992931405</v>
+        <v>0.2933630255171947</v>
       </c>
       <c r="N1" t="n">
-        <v>0.01708844837922609</v>
+        <v>0.2874557913992079</v>
       </c>
       <c r="O1" t="n">
-        <v>0.7105274605592831</v>
+        <v>0.4436386423956774</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1080025348561254</v>
+        <v>0.2154716075925215</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6738722222518517</v>
+        <v>0.5592216545133252</v>
       </c>
       <c r="R1" t="n">
-        <v>0.005811301754194245</v>
+        <v>0.1531386442587883</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9949108774964773</v>
+        <v>0.3016227959234085</v>
       </c>
       <c r="T1" t="n">
-        <v>0.5481781136705638</v>
+        <v>0.9333198836671639</v>
       </c>
       <c r="U1" t="n">
-        <v>0.2318282078730522</v>
+        <v>0.8103238039166207</v>
       </c>
     </row>
     <row r="2">
@@ -796,64 +816,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.000175920027568653</v>
+        <v>0.00390892021223652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03439914711858026</v>
+        <v>0.1614028921700362</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8939757135641695</v>
+        <v>0.607190172430932</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5295278332544251</v>
+        <v>0.5756406252445129</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6290759343625354</v>
+        <v>0.5920389743389101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3108146480628161</v>
+        <v>0.7323916305440721</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3609962527122831</v>
+        <v>0.1502632446195786</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01362361412382098</v>
+        <v>0.239997138894392</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2330755007335809</v>
+        <v>0.0402660142599865</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4983155863255488</v>
+        <v>0.9629529954664352</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7124736498980617</v>
+        <v>0.3291216631890168</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7979225099524883</v>
+        <v>0.2747790142088445</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7888896861765775</v>
+        <v>0.8534492136344687</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4120380224446271</v>
+        <v>0.5170504922911794</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2065369941509637</v>
+        <v>0.381550402040627</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6538248131603261</v>
+        <v>0.3650706791121974</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1452597235280708</v>
+        <v>0.3618827840751875</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2643472320671358</v>
+        <v>0.2167240896629319</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9760454433431593</v>
+        <v>0.8886510188154296</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2947887313979854</v>
+        <v>0.4799994581693443</v>
       </c>
     </row>
     <row r="3">
@@ -863,64 +883,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01297433761232375</v>
+        <v>0.04283093361808504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9557738621215668</v>
+        <v>0.7639582832803562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6129514462297512</v>
+        <v>0.9437855426149038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8752367314495084</v>
+        <v>0.8044829424709035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9107381509096331</v>
+        <v>0.2141861557833276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3242182293937679</v>
+        <v>0.2612304467527269</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2214575214836624</v>
+        <v>0.3527153411988188</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4432080086202841</v>
+        <v>0.2736256633013269</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2378779392747703</v>
+        <v>0.7118529922299033</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8192639994012099</v>
+        <v>0.4798368203911131</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9928735334721697</v>
+        <v>0.7671821130083012</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6875576351381119</v>
+        <v>0.9628043595950724</v>
       </c>
       <c r="N3" t="n">
-        <v>0.836445977199201</v>
+        <v>0.9439609126310229</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02435905188860519</v>
+        <v>0.02692881792058563</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4695368104186347</v>
+        <v>0.3833529435344546</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9457861327876058</v>
+        <v>0.6187534767505996</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9666376164038402</v>
+        <v>0.9296412779727732</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7079544407642588</v>
+        <v>0.4712286296357591</v>
       </c>
       <c r="T3" t="n">
-        <v>0.191665712703529</v>
+        <v>0.2018762967297048</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8690818494112353</v>
+        <v>0.9573110047749702</v>
       </c>
     </row>
     <row r="4">
@@ -930,64 +950,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03989900587626913</v>
+        <v>0.0314118771856608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8361782335592037</v>
+        <v>0.8718244099331784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8589898175048041</v>
+        <v>0.8547935168092402</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5865865913260542</v>
+        <v>0.9321480231954549</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5285974560946732</v>
+        <v>0.2061271314935965</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5237652734000962</v>
+        <v>0.711502966583211</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1090296685434512</v>
+        <v>0.153622723758005</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4743735657625162</v>
+        <v>0.4200041910066594</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9373478004544934</v>
+        <v>0.4292887687151645</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7439505612999933</v>
+        <v>0.7530406923301343</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3682444513265415</v>
+        <v>0.3983131826832159</v>
       </c>
       <c r="M4" t="n">
-        <v>0.353016214972159</v>
+        <v>0.9137227791013023</v>
       </c>
       <c r="N4" t="n">
-        <v>0.940724013161407</v>
+        <v>0.8816214084378619</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5873156833129456</v>
+        <v>0.5073825198848926</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9872958362120248</v>
+        <v>0.7266580010118506</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8489845860141483</v>
+        <v>0.5606350780083696</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8175138879940607</v>
+        <v>0.8721007075453464</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7348270945043209</v>
+        <v>0.3865037152052223</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5569281876514458</v>
+        <v>0.6918032764462912</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5213063349117334</v>
+        <v>0.9433707602912771</v>
       </c>
     </row>
     <row r="5">
@@ -997,64 +1017,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9605974261260968</v>
+        <v>0.8192110995427166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07747690553904189</v>
+        <v>0.1185445784216731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5753779280510609</v>
+        <v>0.6482584350263958</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3905193078780245</v>
+        <v>0.4972183549771241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8042017439942372</v>
+        <v>0.6419400480762942</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8121885525565303</v>
+        <v>0.6400174802520343</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1426131907762052</v>
+        <v>0.1240588863404602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6665060489427292</v>
+        <v>0.876428170246683</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5369816842738132</v>
+        <v>0.5687292227459599</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7302412074497763</v>
+        <v>0.9008811011254746</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09629183654404906</v>
+        <v>0.1171408028637061</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1262777205562105</v>
+        <v>0.4159440503979845</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4549773010799077</v>
+        <v>0.4386181228297141</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1166713550995123</v>
+        <v>0.03081015668295061</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9606629319935602</v>
+        <v>0.5898911479352711</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3500491876123494</v>
+        <v>0.138424024011661</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3511453792832223</v>
+        <v>0.5034434212584717</v>
       </c>
       <c r="S5" t="n">
-        <v>0.003149871122376603</v>
+        <v>0.009960376198927999</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4594600297756295</v>
+        <v>0.3757816842099188</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7573853759456404</v>
+        <v>0.6121786299315457</v>
       </c>
     </row>
     <row r="6">
@@ -1064,64 +1084,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.251428600448681</v>
+        <v>0.1485238059401974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2381787757005454</v>
+        <v>0.1297155462196422</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8875343497076242</v>
+        <v>0.9791118387481366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3389104798136058</v>
+        <v>0.4913788632325822</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1043331211498128</v>
+        <v>0.6546712736128057</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09730930030423432</v>
+        <v>0.4062078161391135</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3195068347366726</v>
+        <v>0.3058628319358669</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02223725356723991</v>
+        <v>0.02438327329823882</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1381391937246056</v>
+        <v>0.5806074019077296</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5635168153132613</v>
+        <v>0.6625415051703047</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8348992062937838</v>
+        <v>0.7933654265302118</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3065585286397042</v>
+        <v>0.3978630786035559</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4636145439369643</v>
+        <v>0.4717631881948893</v>
       </c>
       <c r="O6" t="n">
-        <v>0.249366492803533</v>
+        <v>0.3954701519553476</v>
       </c>
       <c r="P6" t="n">
-        <v>0.345574267170894</v>
+        <v>0.4801254396606179</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1854461807426322</v>
+        <v>0.2132860470438555</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07997132413954064</v>
+        <v>0.1947422165390241</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05376758119456115</v>
+        <v>0.1702883629077194</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7867088560246033</v>
+        <v>0.8769931001306218</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4024706853196626</v>
+        <v>0.3882309304762402</v>
       </c>
     </row>
     <row r="7">
@@ -1131,64 +1151,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.497715707040203</v>
+        <v>0.7897883178363483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0281621703692754</v>
+        <v>0.006305455638712098</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4933361225030193</v>
+        <v>0.2969977584017183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9925316927095245</v>
+        <v>0.853452235647191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3144891534675169</v>
+        <v>0.09783501182020926</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4346680011421681</v>
+        <v>0.8368713896889144</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05025965045976288</v>
+        <v>0.03031347743687249</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02811369386629793</v>
+        <v>0.01922167528150258</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6018030451417231</v>
+        <v>0.7099719166903997</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9230745307917743</v>
+        <v>0.799065491399362</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6134406761422306</v>
+        <v>0.2431201046193732</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7424298920691182</v>
+        <v>0.4469596944536773</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5760981556922534</v>
+        <v>0.2858421161780336</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5254903238554246</v>
+        <v>0.633276677630519</v>
       </c>
       <c r="P7" t="n">
-        <v>0.155492918089817</v>
+        <v>0.3191745602169344</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2737722490981608</v>
+        <v>0.3363197444789207</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01959170555357335</v>
+        <v>0.04013994127822449</v>
       </c>
       <c r="S7" t="n">
-        <v>0.008543959937145061</v>
+        <v>0.06470768827699185</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2605523369671511</v>
+        <v>0.242584243554541</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4926257988602399</v>
+        <v>0.2217427119477635</v>
       </c>
     </row>
     <row r="8">
@@ -1198,64 +1218,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4534525444903656</v>
+        <v>0.3285153292261459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6061814617606592</v>
+        <v>0.4944862807184306</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6691993232830271</v>
+        <v>0.4223414525514427</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9982746648078069</v>
+        <v>0.7500759610936132</v>
       </c>
       <c r="F8" t="n">
-        <v>0.873630861329116</v>
+        <v>0.4522886325555429</v>
       </c>
       <c r="G8" t="n">
-        <v>0.810678413235053</v>
+        <v>0.7013050781020393</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1220896337946303</v>
+        <v>0.1248240570633648</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2971792328927604</v>
+        <v>0.250402497035182</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4155135871537883</v>
+        <v>0.4237530017492823</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8503964177890346</v>
+        <v>0.6906060735994826</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3170924356164561</v>
+        <v>0.3758701431760039</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4040831284325985</v>
+        <v>0.4360000181177233</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6103089774675865</v>
+        <v>0.211917232968038</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1316730343756019</v>
+        <v>0.06730842786018881</v>
       </c>
       <c r="P8" t="n">
-        <v>0.57698399287564</v>
+        <v>0.3764691657954199</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2921838927583616</v>
+        <v>0.1105909777650038</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6887064351731507</v>
+        <v>0.8472578805503499</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1631561772094608</v>
+        <v>0.2503732309772477</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3266911444988928</v>
+        <v>0.4113550020432607</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2831547670468068</v>
+        <v>0.5193780076843338</v>
       </c>
     </row>
     <row r="9">
@@ -1265,64 +1285,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3813969045392708</v>
+        <v>0.2724183016735142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05181391565645435</v>
+        <v>0.01973990757589926</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8731031723208528</v>
+        <v>0.7323990607895748</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4912936166816433</v>
+        <v>0.4826083739448518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05507347795706728</v>
+        <v>0.2058279161250213</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4920336837351306</v>
+        <v>0.7833349633729663</v>
       </c>
       <c r="H9" t="n">
-        <v>0.262807168057342</v>
+        <v>0.2072499351773622</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04021087318771355</v>
+        <v>0.03814808766633027</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3946980635767311</v>
+        <v>0.7859649134715445</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8777695921092042</v>
+        <v>0.7766136877968089</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7350804697530269</v>
+        <v>0.8184251881788679</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5624941209963163</v>
+        <v>0.4537168874621456</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2769573730261444</v>
+        <v>0.2406280010004936</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6180264074163637</v>
+        <v>0.9114362758002256</v>
       </c>
       <c r="P9" t="n">
-        <v>0.816026864493169</v>
+        <v>0.7609925454619685</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6826296346199328</v>
+        <v>0.9676468235116316</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01898316068879009</v>
+        <v>0.04370871627699835</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03735671037250059</v>
+        <v>0.1744472126709871</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1664672062403606</v>
+        <v>0.1877484179745404</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6027907783664066</v>
+        <v>0.4651995974447416</v>
       </c>
     </row>
     <row r="10">
@@ -1332,64 +1352,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7940639010895978</v>
+        <v>0.5217665753612376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0200727559964494</v>
+        <v>0.006303388052402573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6950879882982548</v>
+        <v>0.5019433326285935</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5316432004535867</v>
+        <v>0.6066046011448636</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2135703992626401</v>
+        <v>0.2489392957831286</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1570924979405199</v>
+        <v>0.4632730072712065</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1107741465668245</v>
+        <v>0.09076747699848592</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01667407716783708</v>
+        <v>0.0138880985333592</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4253165835480589</v>
+        <v>0.8959758591018497</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8848382234427006</v>
+        <v>0.9889713345545911</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9650373355271908</v>
+        <v>0.6349123236086035</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4359361244093038</v>
+        <v>0.3441805709472746</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7159573627879469</v>
+        <v>0.436909350713115</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2270315525954789</v>
+        <v>0.2636081332991409</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2722979986200679</v>
+        <v>0.374781117895711</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2981104338207834</v>
+        <v>0.2994034757977318</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03230589677205601</v>
+        <v>0.08556241261966517</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01275842079520876</v>
+        <v>0.09248254129542656</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4399870821874016</v>
+        <v>0.4526608204982883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6451818743796284</v>
+        <v>0.4265183715978846</v>
       </c>
     </row>
     <row r="11">
@@ -1399,64 +1419,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09586632651214427</v>
+        <v>0.3196038031817299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4734289242069822</v>
+        <v>0.3625881420307702</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1203421032602633</v>
+        <v>0.2796407559935444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3913200491227026</v>
+        <v>0.6550239912541744</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04588673159201297</v>
+        <v>0.08098632294500926</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3744433257257894</v>
+        <v>0.2122817725023923</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8828877134047923</v>
+        <v>0.3267187034574313</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6468473195331004</v>
+        <v>0.484201002275958</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5682745151316376</v>
+        <v>0.4492599767438615</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07964507407627022</v>
+        <v>0.5225857051701444</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9013250111440182</v>
+        <v>0.2925663349705855</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008191613946407942</v>
+        <v>0.04650508454494367</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3985435416492464</v>
+        <v>0.8461460862988919</v>
       </c>
       <c r="O11" t="n">
-        <v>0.926542519737551</v>
+        <v>0.9845529144224165</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7954500959451871</v>
+        <v>0.8153223209375591</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2709270228861537</v>
+        <v>0.2809781901154287</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2172776116247912</v>
+        <v>0.8661489522445743</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05414152832695431</v>
+        <v>0.00961185927113279</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1297908667667701</v>
+        <v>0.2042664203599883</v>
       </c>
       <c r="U11" t="n">
-        <v>0.006275635968299093</v>
+        <v>0.385385336935509</v>
       </c>
     </row>
     <row r="12">
@@ -1466,64 +1486,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9456158263452388</v>
+        <v>0.8488484340868868</v>
       </c>
       <c r="C12" t="n">
-        <v>0.413079260149285</v>
+        <v>0.1554079742882648</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08981166621482427</v>
+        <v>0.8947312491329045</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9862181257289455</v>
+        <v>0.8311063345347707</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007646350647904521</v>
+        <v>0.3828488346060943</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9480347167458014</v>
+        <v>0.2800452652445725</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8995587205008677</v>
+        <v>0.1561876835948554</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1638931232842862</v>
+        <v>0.8151093400260854</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6866682299557609</v>
+        <v>0.6753524813677043</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9085500162820163</v>
+        <v>0.9719747596720462</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1769966581651767</v>
+        <v>0.991378290782431</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1084828230710855</v>
+        <v>0.250757022473264</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7591002718926592</v>
+        <v>0.1885199815985619</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8121564927661219</v>
+        <v>0.3208944483566213</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4766838043326611</v>
+        <v>0.3643085239416026</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8559103980195916</v>
+        <v>0.9701267593413745</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7015522132718374</v>
+        <v>0.635216684852568</v>
       </c>
       <c r="S12" t="n">
-        <v>0.09994209315682076</v>
+        <v>0.1504391922694759</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1821085111773183</v>
+        <v>0.4476954637481244</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04357693631841769</v>
+        <v>0.9709783264869088</v>
       </c>
     </row>
     <row r="13">
@@ -1533,64 +1553,131 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4934903387661744</v>
+        <v>0.5265855868283505</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3320880003106245</v>
+        <v>0.1414844353893243</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9574828006146109</v>
+        <v>0.9191617245381019</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2184414918174485</v>
+        <v>0.3721228881661678</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6712354854279869</v>
+        <v>0.7931656285902653</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7428510854016157</v>
+        <v>0.7469173000757598</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5742430279836415</v>
+        <v>0.559298946785503</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2400435599236136</v>
+        <v>0.07821265195929143</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6003911615185875</v>
+        <v>0.7599995982376032</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05400424380575741</v>
+        <v>0.02655423343556594</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1365556075278624</v>
+        <v>0.1635014068319198</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9609630423712985</v>
+        <v>0.4689840341492766</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7204508416133227</v>
+        <v>0.9701805251463641</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6817733075069128</v>
+        <v>0.4502471860483326</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8167168077641789</v>
+        <v>0.6817357273937208</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6739049280259535</v>
+        <v>0.5300879113329957</v>
       </c>
       <c r="R13" t="n">
-        <v>0.685935634007808</v>
+        <v>0.832095714006869</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9186310554354655</v>
+        <v>0.673425428446393</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2746280194990882</v>
+        <v>0.3124179982152465</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7249861304409014</v>
+        <v>0.21327710712918</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Avg_Distancia_casas_parcelas</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6806491145933071</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8929285652677058</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4170542861187649</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5220684764846141</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.126657984225262</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.252487445524063</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3277643699110434</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6489304574365449</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8108379683708822</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8713817425464423</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5937280318302942</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.345677944840184</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8788746992714036</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9800210465821695</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.6204907653397449</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.6899142856712186</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.7375268971060271</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.6641540958644914</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.946831662820552</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.6117755899523821</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A7:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,24 +1699,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Degree_Rede_EntreajudaLabur</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>0.108093654025522</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1018924922456993</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1204930629143134</v>
       </c>
     </row>
   </sheetData>

--- a/DataIntermediate/resultados_regresiones.xlsx
+++ b/DataIntermediate/resultados_regresiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2081504355021974</v>
+        <v>0.2332801434865002</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1190503486476637</v>
+        <v>0.2000146828987401</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1163728544258805</v>
+        <v>0.3297508030640129</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07045629848326995</v>
+        <v>0.3280944918267936</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2145101522065842</v>
+        <v>0.2763645915895521</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1562071958200355</v>
+        <v>0.315806247081182</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.25104487388797</v>
+        <v>0.2160136403150758</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1812944422407019</v>
+        <v>0.3684396366103975</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1719209350006222</v>
+        <v>0.2172529261356944</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2228495463631275</v>
+        <v>0.2844930978024161</v>
       </c>
     </row>
     <row r="11">
@@ -531,37 +531,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1637425810188008</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PC1_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1159061130008155</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PC2_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1217906238110491</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Avg_Distancia_casas_parcelas</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.08550346447630131</v>
+        <v>0.3238354111684546</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +560,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.07012161233285552</v>
+        <v>0.07414960722898134</v>
       </c>
     </row>
     <row r="2">
@@ -600,7 +570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03450968232200968</v>
+        <v>0.03397999444376176</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +580,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03765389572006694</v>
+        <v>0.1906424791716383</v>
       </c>
     </row>
     <row r="4">
@@ -620,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09157425499212346</v>
+        <v>0.1886424052248075</v>
       </c>
     </row>
     <row r="5">
@@ -630,7 +600,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07758990350864925</v>
+        <v>0.1261761105987044</v>
       </c>
     </row>
     <row r="6">
@@ -640,7 +610,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009124046467564595</v>
+        <v>0.1738037700602952</v>
       </c>
     </row>
     <row r="7">
@@ -650,7 +620,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1204930629143134</v>
+        <v>0.05329949019178959</v>
       </c>
     </row>
     <row r="8">
@@ -660,7 +630,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03858429914504435</v>
+        <v>0.2373610706238762</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +640,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02757687779889573</v>
+        <v>0.05479598627706495</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08738295352734227</v>
+        <v>0.1359916652708421</v>
       </c>
     </row>
     <row r="11">
@@ -690,37 +660,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01797293917804121</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PC1_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.03820199574216154</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PC2_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.03129174451546524</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Avg_Distancia_casas_parcelas</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.07390418850489389</v>
+        <v>0.1834993644298321</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,64 +689,73 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.01169214795743071</v>
+        <v>0.0003192662679589752</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1775396715912501</v>
+        <v>0.3026798385131555</v>
       </c>
       <c r="D1" t="n">
-        <v>0.02041353705863544</v>
+        <v>0.05483045758537985</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1486335250739482</v>
+        <v>0.1622890881816562</v>
       </c>
       <c r="F1" t="n">
-        <v>0.1341930646727529</v>
+        <v>0.2485923971153871</v>
       </c>
       <c r="G1" t="n">
-        <v>0.09591264411636424</v>
+        <v>0.5912856606591754</v>
       </c>
       <c r="H1" t="n">
-        <v>0.2263419325853078</v>
+        <v>0.4097743454912333</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3728372057278631</v>
+        <v>0.3655822997106392</v>
       </c>
       <c r="J1" t="n">
-        <v>0.7551154035380674</v>
+        <v>0.03378940763199284</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9360921880801402</v>
+        <v>0.8243987381330985</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3463177795372145</v>
+        <v>0.9235633081314727</v>
       </c>
       <c r="M1" t="n">
-        <v>0.2933630255171947</v>
+        <v>0.3199437998178987</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2874557913992079</v>
+        <v>0.4325594242950046</v>
       </c>
       <c r="O1" t="n">
-        <v>0.4436386423956774</v>
+        <v>0.1594579455249262</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2154716075925215</v>
+        <v>0.2118692833077037</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.5592216545133252</v>
+        <v>0.658329116262216</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1531386442587883</v>
+        <v>0.7260610004422718</v>
       </c>
       <c r="S1" t="n">
-        <v>0.3016227959234085</v>
+        <v>0.624958208961109</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9333198836671639</v>
+        <v>0.5829088151045264</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8103238039166207</v>
+        <v>0.01029675007648389</v>
+      </c>
+      <c r="V1" t="n">
+        <v>0.1613100203379007</v>
+      </c>
+      <c r="W1" t="n">
+        <v>0.5976684997682671</v>
+      </c>
+      <c r="X1" t="n">
+        <v>0.2924628094825792</v>
       </c>
     </row>
     <row r="2">
@@ -816,64 +765,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00390892021223652</v>
+        <v>0.002214669665481755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1614028921700362</v>
+        <v>0.03117946414840101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.607190172430932</v>
+        <v>0.328449183477301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5756406252445129</v>
+        <v>0.04188618644785696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5920389743389101</v>
+        <v>0.7051078353971793</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7323916305440721</v>
+        <v>0.621913807488637</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1502632446195786</v>
+        <v>0.7974494408590475</v>
       </c>
       <c r="I2" t="n">
-        <v>0.239997138894392</v>
+        <v>0.1080495857658815</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0402660142599865</v>
+        <v>0.8380274925205228</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9629529954664352</v>
+        <v>0.04546743935237781</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3291216631890168</v>
+        <v>0.2054486189520756</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2747790142088445</v>
+        <v>0.4069163433616196</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8534492136344687</v>
+        <v>0.5025501395962989</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5170504922911794</v>
+        <v>0.3978201826170051</v>
       </c>
       <c r="P2" t="n">
-        <v>0.381550402040627</v>
+        <v>0.4028271783097845</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3650706791121974</v>
+        <v>0.21590824026089</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3618827840751875</v>
+        <v>0.8619976882302064</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2167240896629319</v>
+        <v>0.1315673653992721</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8886510188154296</v>
+        <v>0.3651465516010143</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4799994581693443</v>
+        <v>0.7652381888413762</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.6589388533947046</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9365342551581359</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9303194946496143</v>
       </c>
     </row>
     <row r="3">
@@ -883,64 +841,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04283093361808504</v>
+        <v>0.9262339247544391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7639582832803562</v>
+        <v>0.88497561466685</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9437855426149038</v>
+        <v>0.3659433297715781</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8044829424709035</v>
+        <v>0.9657147515736317</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2141861557833276</v>
+        <v>0.1836899160636375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2612304467527269</v>
+        <v>0.04864674749037713</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3527153411988188</v>
+        <v>0.03414995199474148</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2736256633013269</v>
+        <v>0.5564872950207997</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7118529922299033</v>
+        <v>0.997319671330213</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4798368203911131</v>
+        <v>0.100017758154393</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7671821130083012</v>
+        <v>0.4695398387308998</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9628043595950724</v>
+        <v>0.7601682862216881</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9439609126310229</v>
+        <v>0.4468935348599653</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02692881792058563</v>
+        <v>0.02175039374796306</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3833529435344546</v>
+        <v>0.06525832175333997</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6187534767505996</v>
+        <v>0.326734521301016</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9296412779727732</v>
+        <v>0.0966400750309484</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4712286296357591</v>
+        <v>0.9970739076643563</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2018762967297048</v>
+        <v>0.5835991598562178</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9573110047749702</v>
+        <v>0.08069165695457824</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.9950892339218801</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.03235093162712395</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.583443710725548</v>
       </c>
     </row>
     <row r="4">
@@ -950,64 +917,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0314118771856608</v>
+        <v>0.4156846837745201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8718244099331784</v>
+        <v>0.3741043036607213</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8547935168092402</v>
+        <v>0.8236595930593053</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9321480231954549</v>
+        <v>0.5876062623671539</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2061271314935965</v>
+        <v>0.3238345321491506</v>
       </c>
       <c r="G4" t="n">
-        <v>0.711502966583211</v>
+        <v>0.05531727845254922</v>
       </c>
       <c r="H4" t="n">
-        <v>0.153622723758005</v>
+        <v>0.6705374850499898</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4200041910066594</v>
+        <v>0.26792936291895</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4292887687151645</v>
+        <v>0.4544064389969774</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7530406923301343</v>
+        <v>0.1721703057628272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3983131826832159</v>
+        <v>0.6613445541802381</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9137227791013023</v>
+        <v>0.2799502667965574</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8816214084378619</v>
+        <v>0.113007151996211</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5073825198848926</v>
+        <v>0.3161250339672986</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7266580010118506</v>
+        <v>0.6304311292814524</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5606350780083696</v>
+        <v>0.0004543738471264454</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8721007075453464</v>
+        <v>0.1052201428159574</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3865037152052223</v>
+        <v>0.009099653481862556</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6918032764462912</v>
+        <v>0.2210738708137349</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9433707602912771</v>
+        <v>0.2449654245916122</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.7038760805170188</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9801896450530081</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.06954104510278034</v>
       </c>
     </row>
     <row r="5">
@@ -1017,64 +993,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8192110995427166</v>
+        <v>0.4980560139464287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1185445784216731</v>
+        <v>0.1268131508371667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6482584350263958</v>
+        <v>0.3376681044413784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4972183549771241</v>
+        <v>0.7738163308172623</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6419400480762942</v>
+        <v>0.3418113783212929</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6400174802520343</v>
+        <v>0.967203347037819</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1240588863404602</v>
+        <v>0.0483771312719483</v>
       </c>
       <c r="I5" t="n">
-        <v>0.876428170246683</v>
+        <v>0.2682012542193749</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5687292227459599</v>
+        <v>0.7872206450994306</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9008811011254746</v>
+        <v>0.7230161259629997</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1171408028637061</v>
+        <v>0.8203570023363156</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4159440503979845</v>
+        <v>0.4145741285032544</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4386181228297141</v>
+        <v>0.5676032390159996</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03081015668295061</v>
+        <v>0.6765508892168823</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5898911479352711</v>
+        <v>0.00271397101856995</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.138424024011661</v>
+        <v>0.6680680153103833</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5034434212584717</v>
+        <v>0.5069197808404855</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009960376198927999</v>
+        <v>0.5166659025561295</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3757816842099188</v>
+        <v>0.8362854614227879</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6121786299315457</v>
+        <v>0.2882732258878145</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2594829306745177</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9464434852769208</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3893197266582041</v>
       </c>
     </row>
     <row r="6">
@@ -1084,64 +1069,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1485238059401974</v>
+        <v>0.02465145149996861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1297155462196422</v>
+        <v>0.3644085339165556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9791118387481366</v>
+        <v>0.5039213074558797</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4913788632325822</v>
+        <v>0.6092876922208779</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6546712736128057</v>
+        <v>0.7896974270802943</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4062078161391135</v>
+        <v>0.5320606663768046</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3058628319358669</v>
+        <v>0.6249340783216664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02438327329823882</v>
+        <v>0.7238325011909696</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5806074019077296</v>
+        <v>0.0488411768449897</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6625415051703047</v>
+        <v>0.8169526427861953</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7933654265302118</v>
+        <v>0.00041218043087554</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3978630786035559</v>
+        <v>0.3785696296515484</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4717631881948893</v>
+        <v>0.2911785686817608</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3954701519553476</v>
+        <v>0.3857984132263843</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4801254396606179</v>
+        <v>0.2761669566253906</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2132860470438555</v>
+        <v>0.3056724333081228</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1947422165390241</v>
+        <v>0.4120121692598313</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1702883629077194</v>
+        <v>0.7964664491071856</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8769931001306218</v>
+        <v>0.5785463068592112</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3882309304762402</v>
+        <v>0.770728893902564</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6464161701352422</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.4948394289273145</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.6424889026128866</v>
       </c>
     </row>
     <row r="7">
@@ -1151,64 +1145,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7897883178363483</v>
+        <v>0.05145883074634414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006305455638712098</v>
+        <v>0.4791966728548737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2969977584017183</v>
+        <v>0.5754351840258498</v>
       </c>
       <c r="E7" t="n">
-        <v>0.853452235647191</v>
+        <v>0.8288211088525852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09783501182020926</v>
+        <v>0.3230325250703909</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8368713896889144</v>
+        <v>0.7361323912177813</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03031347743687249</v>
+        <v>0.993645602868535</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01922167528150258</v>
+        <v>0.2837100289576474</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7099719166903997</v>
+        <v>0.688806700588372</v>
       </c>
       <c r="K7" t="n">
-        <v>0.799065491399362</v>
+        <v>0.4506214233006788</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2431201046193732</v>
+        <v>0.05397890624454649</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4469596944536773</v>
+        <v>0.592353407874609</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2858421161780336</v>
+        <v>0.2961857844022385</v>
       </c>
       <c r="O7" t="n">
-        <v>0.633276677630519</v>
+        <v>0.08397202875909707</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3191745602169344</v>
+        <v>0.1398628048652542</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3363197444789207</v>
+        <v>0.4623466335985338</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04013994127822449</v>
+        <v>0.8582949033163005</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06470768827699185</v>
+        <v>0.4369942765131364</v>
       </c>
       <c r="T7" t="n">
-        <v>0.242584243554541</v>
+        <v>0.3354761674520899</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2217427119477635</v>
+        <v>0.3505328854361982</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.7490090473982393</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.7655762071868578</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1614221545824821</v>
       </c>
     </row>
     <row r="8">
@@ -1218,64 +1221,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3285153292261459</v>
+        <v>0.291694435308434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4944862807184306</v>
+        <v>0.1332279915646206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4223414525514427</v>
+        <v>0.8615238611116097</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7500759610936132</v>
+        <v>0.7973981625386151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4522886325555429</v>
+        <v>0.4925632655069138</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7013050781020393</v>
+        <v>0.2044566342844015</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1248240570633648</v>
+        <v>0.3843431689925557</v>
       </c>
       <c r="I8" t="n">
-        <v>0.250402497035182</v>
+        <v>0.03255063207570756</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4237530017492823</v>
+        <v>0.8487072093809865</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6906060735994826</v>
+        <v>0.7493531290030953</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3758701431760039</v>
+        <v>0.6112618216961978</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4360000181177233</v>
+        <v>0.05522247834085521</v>
       </c>
       <c r="N8" t="n">
-        <v>0.211917232968038</v>
+        <v>0.8457643557523082</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06730842786018881</v>
+        <v>0.5477179547116302</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3764691657954199</v>
+        <v>0.1088429067367171</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1105909777650038</v>
+        <v>0.09265715655445066</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8472578805503499</v>
+        <v>0.6379952287266162</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2503732309772477</v>
+        <v>0.2779057031856729</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4113550020432607</v>
+        <v>0.7755361944781108</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5193780076843338</v>
+        <v>0.976611976826586</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.08108760279572776</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.4662848925993456</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1830419783149153</v>
       </c>
     </row>
     <row r="9">
@@ -1285,64 +1297,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2724183016735142</v>
+        <v>0.005632389763359432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01973990757589926</v>
+        <v>0.764955675314287</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7323990607895748</v>
+        <v>0.9908307366641305</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4826083739448518</v>
+        <v>0.7189036771380859</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2058279161250213</v>
+        <v>0.6512806876424423</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7833349633729663</v>
+        <v>0.8564139861822359</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2072499351773622</v>
+        <v>0.5617448941081993</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03814808766633027</v>
+        <v>0.7464414018784076</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7859649134715445</v>
+        <v>0.3873636007575747</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7766136877968089</v>
+        <v>0.9969741568994831</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8184251881788679</v>
+        <v>0.003231248890220075</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4537168874621456</v>
+        <v>0.6158190312521007</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2406280010004936</v>
+        <v>0.1580649026865513</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9114362758002256</v>
+        <v>0.04974403320674633</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7609925454619685</v>
+        <v>0.2067230717247516</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9676468235116316</v>
+        <v>0.4905900309076573</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04370871627699835</v>
+        <v>0.9769201900928839</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1744472126709871</v>
+        <v>0.250172563160058</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1877484179745404</v>
+        <v>0.2928684805781062</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4651995974447416</v>
+        <v>0.5032523316122883</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8827447754911212</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.7165997738188492</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.906639437047747</v>
       </c>
     </row>
     <row r="10">
@@ -1352,64 +1373,73 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5217665753612376</v>
+        <v>0.0466381378323496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006303388052402573</v>
+        <v>0.5259610392959163</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5019433326285935</v>
+        <v>0.9909756823747791</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6066046011448636</v>
+        <v>0.9827271426098989</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2489392957831286</v>
+        <v>0.5135556274156463</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4632730072712065</v>
+        <v>0.9290907992719719</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09076747699848592</v>
+        <v>0.869364157593997</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0138880985333592</v>
+        <v>0.4220358946897498</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8959758591018497</v>
+        <v>0.3325849801944865</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9889713345545911</v>
+        <v>0.5194891686369354</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6349123236086035</v>
+        <v>0.004453467444707191</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3441805709472746</v>
+        <v>0.4593671346688893</v>
       </c>
       <c r="N10" t="n">
-        <v>0.436909350713115</v>
+        <v>0.3417263873353007</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2636081332991409</v>
+        <v>0.2000392776953077</v>
       </c>
       <c r="P10" t="n">
-        <v>0.374781117895711</v>
+        <v>0.1843421073203717</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2994034757977318</v>
+        <v>0.2104084861435763</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08556241261966517</v>
+        <v>0.4346716431351606</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09248254129542656</v>
+        <v>0.605240436237531</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4526608204982883</v>
+        <v>0.4289402090033292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.4265183715978846</v>
+        <v>0.7359025378500199</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.7716948890692739</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.7930197493302527</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1215989810726102</v>
       </c>
     </row>
     <row r="11">
@@ -1419,265 +1449,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3196038031817299</v>
+        <v>0.3370874941887603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3625881420307702</v>
+        <v>0.2837322015967824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2796407559935444</v>
+        <v>0.5754336138829735</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6550239912541744</v>
+        <v>0.07650780313571108</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08098632294500926</v>
+        <v>0.7664372866291084</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2122817725023923</v>
+        <v>0.7349103349558378</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3267187034574313</v>
+        <v>0.01278040600480919</v>
       </c>
       <c r="I11" t="n">
-        <v>0.484201002275958</v>
+        <v>0.1602464337838222</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4492599767438615</v>
+        <v>0.0258964880931087</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5225857051701444</v>
+        <v>0.02094026270274841</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2925663349705855</v>
+        <v>0.6822821070975836</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04650508454494367</v>
+        <v>0.274084206731973</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8461460862988919</v>
+        <v>0.26907428260076</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9845529144224165</v>
+        <v>0.5111922660240218</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8153223209375591</v>
+        <v>0.03426662211019636</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2809781901154287</v>
+        <v>0.6335125782033139</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8661489522445743</v>
+        <v>0.6802049796362174</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00961185927113279</v>
+        <v>0.4946007931661207</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2042664203599883</v>
+        <v>0.3203961567668838</v>
       </c>
       <c r="U11" t="n">
-        <v>0.385385336935509</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PC1_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8488484340868868</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1554079742882648</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8947312491329045</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8311063345347707</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.3828488346060943</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.2800452652445725</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1561876835948554</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.8151093400260854</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6753524813677043</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.9719747596720462</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.991378290782431</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.250757022473264</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.1885199815985619</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.3208944483566213</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.3643085239416026</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.9701267593413745</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.635216684852568</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.1504391922694759</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.4476954637481244</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.9709783264869088</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PC2_Dist_Prod</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5265855868283505</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1414844353893243</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9191617245381019</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.3721228881661678</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7931656285902653</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.7469173000757598</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.559298946785503</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.07821265195929143</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7599995982376032</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.02655423343556594</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.1635014068319198</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.4689840341492766</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.9701805251463641</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.4502471860483326</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.6817357273937208</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.5300879113329957</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.832095714006869</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.673425428446393</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.3124179982152465</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.21327710712918</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Avg_Distancia_casas_parcelas</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.6806491145933071</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8929285652677058</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4170542861187649</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5220684764846141</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.126657984225262</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.252487445524063</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.3277643699110434</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.6489304574365449</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8108379683708822</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.8713817425464423</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.5937280318302942</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.345677944840184</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.8788746992714036</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.9800210465821695</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.6204907653397449</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.6899142856712186</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.7375268971060271</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.6641540958644914</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.946831662820552</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.6117755899523821</v>
+        <v>0.1791224701633152</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.9536635256425405</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.9610554374446667</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.9334779832222817</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:B7"/>
+  <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,14 +1537,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1204930629143134</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1906424791716383</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1886424052248075</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1261761105987044</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1738037700602952</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2373610706238762</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1359916652708421</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1834993644298321</v>
       </c>
     </row>
   </sheetData>

--- a/DataIntermediate/resultados_regresiones.xlsx
+++ b/DataIntermediate/resultados_regresiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="R2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2000146828987401</v>
+        <v>0.2000146828987399</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3280944918267936</v>
+        <v>0.3280944918267935</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2763645915895521</v>
+        <v>0.2763645915895523</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.315806247081182</v>
+        <v>0.3158062470811819</v>
       </c>
     </row>
     <row r="7">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03397999444376176</v>
+        <v>0.03397999444376143</v>
       </c>
     </row>
     <row r="3">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1886424052248075</v>
+        <v>0.1886424052248072</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1261761105987044</v>
+        <v>0.1261761105987047</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1738037700602952</v>
+        <v>0.1738037700602951</v>
       </c>
     </row>
     <row r="7">
@@ -689,73 +689,73 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.0003192662679589752</v>
+        <v>0.0003192662679561087</v>
       </c>
       <c r="C1" t="n">
-        <v>0.3026798385131555</v>
+        <v>0.3026798385132411</v>
       </c>
       <c r="D1" t="n">
-        <v>0.05483045758537985</v>
+        <v>0.05483045758228317</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1622890881816562</v>
+        <v>0.1622890881832323</v>
       </c>
       <c r="F1" t="n">
-        <v>0.2485923971153871</v>
+        <v>0.2485923971175055</v>
       </c>
       <c r="G1" t="n">
-        <v>0.5912856606591754</v>
+        <v>0.5912856606731445</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4097743454912333</v>
+        <v>0.4097743454884323</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3655822997106392</v>
+        <v>0.3655822997171867</v>
       </c>
       <c r="J1" t="n">
-        <v>0.03378940763199284</v>
+        <v>0.03378940763050842</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8243987381330985</v>
+        <v>0.8243987381364629</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9235633081314727</v>
+        <v>0.9235633080242278</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3199437998178987</v>
+        <v>0.3199437998256048</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4325594242950046</v>
+        <v>0.4325594243247964</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1594579455249262</v>
+        <v>0.1594579455249263</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2118692833077037</v>
+        <v>0.211869283307704</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.658329116262216</v>
+        <v>0.6583291162622167</v>
       </c>
       <c r="R1" t="n">
-        <v>0.7260610004422718</v>
+        <v>0.726061000442272</v>
       </c>
       <c r="S1" t="n">
-        <v>0.624958208961109</v>
+        <v>0.6249582089611105</v>
       </c>
       <c r="T1" t="n">
-        <v>0.5829088151045264</v>
+        <v>0.5829088151045274</v>
       </c>
       <c r="U1" t="n">
-        <v>0.01029675007648389</v>
+        <v>0.0102967500764839</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1613100203379007</v>
+        <v>0.1613100203379013</v>
       </c>
       <c r="W1" t="n">
-        <v>0.5976684997682671</v>
+        <v>0.5976684997682713</v>
       </c>
       <c r="X1" t="n">
-        <v>0.2924628094825792</v>
+        <v>0.2924628094825781</v>
       </c>
     </row>
     <row r="2">
@@ -765,73 +765,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002214669665481755</v>
+        <v>0.002214669665446589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03117946414840101</v>
+        <v>0.03117946414841146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.328449183477301</v>
+        <v>0.3284491835024123</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04188618644785696</v>
+        <v>0.04188618644898818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7051078353971793</v>
+        <v>0.7051078353894835</v>
       </c>
       <c r="G2" t="n">
-        <v>0.621913807488637</v>
+        <v>0.621913807456886</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7974494408590475</v>
+        <v>0.7974494408512545</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1080495857658815</v>
+        <v>0.1080495857717755</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8380274925205228</v>
+        <v>0.8380274925688751</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04546743935237781</v>
+        <v>0.04546743935324062</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2054486189520756</v>
+        <v>0.2054486190666639</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4069163433616196</v>
+        <v>0.4069163433805177</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5025501395962989</v>
+        <v>0.5025501397961472</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3978201826170051</v>
+        <v>0.3978201826170038</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4028271783097845</v>
+        <v>0.4028271783097848</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.21590824026089</v>
+        <v>0.2159082402608898</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8619976882302064</v>
+        <v>0.8619976882302086</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1315673653992721</v>
+        <v>0.1315673653992723</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3651465516010143</v>
+        <v>0.3651465516010139</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7652381888413762</v>
+        <v>0.7652381888413764</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6589388533947046</v>
+        <v>0.6589388533947049</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9365342551581359</v>
+        <v>0.9365342551581393</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9303194946496143</v>
+        <v>0.9303194946496175</v>
       </c>
     </row>
     <row r="3">
@@ -841,73 +841,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9262339247544391</v>
+        <v>0.9262339247541844</v>
       </c>
       <c r="C3" t="n">
-        <v>0.88497561466685</v>
+        <v>0.8849756146668244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3659433297715781</v>
+        <v>0.365943329773177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9657147515736317</v>
+        <v>0.9657147515742615</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1836899160636375</v>
+        <v>0.1836899160634984</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04864674749037713</v>
+        <v>0.04864674748969078</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03414995199474148</v>
+        <v>0.03414995199475152</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5564872950207997</v>
+        <v>0.5564872950183798</v>
       </c>
       <c r="J3" t="n">
-        <v>0.997319671330213</v>
+        <v>0.9973196713335124</v>
       </c>
       <c r="K3" t="n">
-        <v>0.100017758154393</v>
+        <v>0.1000177581543518</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4695398387308998</v>
+        <v>0.4695398387541886</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7601682862216881</v>
+        <v>0.7601682862232375</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4468935348599653</v>
+        <v>0.4468935349687552</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02175039374796306</v>
+        <v>0.02175039374796357</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06525832175333997</v>
+        <v>0.06525832175333932</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.326734521301016</v>
+        <v>0.3267345213010139</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0966400750309484</v>
+        <v>0.09664007503094812</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9970739076643563</v>
+        <v>0.9970739076643564</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5835991598562178</v>
+        <v>0.5835991598562162</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08069165695457824</v>
+        <v>0.08069165695457899</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9950892339218801</v>
+        <v>0.9950892339218796</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03235093162712395</v>
+        <v>0.03235093162712364</v>
       </c>
       <c r="X3" t="n">
-        <v>0.583443710725548</v>
+        <v>0.5834437107255472</v>
       </c>
     </row>
     <row r="4">
@@ -917,73 +917,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4156846837745201</v>
+        <v>0.4156846837756306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3741043036607213</v>
+        <v>0.374104303660725</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8236595930593053</v>
+        <v>0.8236595930428047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5876062623671539</v>
+        <v>0.5876062623703842</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3238345321491506</v>
+        <v>0.3238345321513222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05531727845254922</v>
+        <v>0.05531727845439421</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6705374850499898</v>
+        <v>0.6705374850528967</v>
       </c>
       <c r="I4" t="n">
-        <v>0.26792936291895</v>
+        <v>0.2679293629232434</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4544064389969774</v>
+        <v>0.4544064390140841</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1721703057628272</v>
+        <v>0.1721703057637936</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6613445541802381</v>
+        <v>0.6613445542742542</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2799502667965574</v>
+        <v>0.2799502667896444</v>
       </c>
       <c r="N4" t="n">
-        <v>0.113007151996211</v>
+        <v>0.1130071520680406</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3161250339672986</v>
+        <v>0.3161250339673039</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6304311292814524</v>
+        <v>0.6304311292814515</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0004543738471264454</v>
+        <v>0.0004543738471264346</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1052201428159574</v>
+        <v>0.105220142815957</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009099653481862556</v>
+        <v>0.009099653481862417</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2210738708137349</v>
+        <v>0.2210738708137328</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2449654245916122</v>
+        <v>0.244965424591611</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7038760805170188</v>
+        <v>0.7038760805170217</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9801896450530081</v>
+        <v>0.9801896450530125</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06954104510278034</v>
+        <v>0.06954104510278063</v>
       </c>
     </row>
     <row r="5">
@@ -993,73 +993,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4980560139464287</v>
+        <v>0.4980560139442318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1268131508371667</v>
+        <v>0.1268131508371719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3376681044413784</v>
+        <v>0.3376681044230546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7738163308172623</v>
+        <v>0.7738163308116839</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3418113783212929</v>
+        <v>0.3418113783251212</v>
       </c>
       <c r="G5" t="n">
-        <v>0.967203347037819</v>
+        <v>0.9672033470128198</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0483771312719483</v>
+        <v>0.04837713127111361</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2682012542193749</v>
+        <v>0.268201254227634</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7872206450994306</v>
+        <v>0.7872206450675618</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7230161259629997</v>
+        <v>0.7230161259580246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8203570023363156</v>
+        <v>0.8203570021824653</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4145741285032544</v>
+        <v>0.4145741285160541</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5676032390159996</v>
+        <v>0.5676032387056801</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6765508892168823</v>
+        <v>0.6765508892168899</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00271397101856995</v>
+        <v>0.002713971018569935</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6680680153103833</v>
+        <v>0.6680680153103812</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5069197808404855</v>
+        <v>0.5069197808404832</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5166659025561295</v>
+        <v>0.5166659025561314</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8362854614227879</v>
+        <v>0.8362854614227877</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2882732258878145</v>
+        <v>0.2882732258878153</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2594829306745177</v>
+        <v>0.2594829306745169</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9464434852769208</v>
+        <v>0.9464434852769223</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3893197266582041</v>
+        <v>0.3893197266582031</v>
       </c>
     </row>
     <row r="6">
@@ -1069,73 +1069,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02465145149996861</v>
+        <v>0.02465145150008474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3644085339165556</v>
+        <v>0.3644085339165951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5039213074558797</v>
+        <v>0.5039213074420614</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6092876922208779</v>
+        <v>0.6092876922240579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7896974270802943</v>
+        <v>0.7896974270837051</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5320606663768046</v>
+        <v>0.532060666388241</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6249340783216664</v>
+        <v>0.6249340783245316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7238325011909696</v>
+        <v>0.7238325012000512</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0488411768449897</v>
+        <v>0.048841176843244</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8169526427861953</v>
+        <v>0.8169526427831179</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00041218043087554</v>
+        <v>0.0004121804308392387</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3785696296515484</v>
+        <v>0.3785696296428647</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2911785686817608</v>
+        <v>0.2911785685658051</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3857984132263843</v>
+        <v>0.3857984132263781</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2761669566253906</v>
+        <v>0.2761669566253897</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3056724333081228</v>
+        <v>0.3056724333081223</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4120121692598313</v>
+        <v>0.4120121692598311</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7964664491071856</v>
+        <v>0.7964664491071878</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5785463068592112</v>
+        <v>0.5785463068592107</v>
       </c>
       <c r="U6" t="n">
-        <v>0.770728893902564</v>
+        <v>0.7707288939025629</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6464161701352422</v>
+        <v>0.6464161701352471</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4948394289273145</v>
+        <v>0.4948394289273207</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6424889026128866</v>
+        <v>0.6424889026128843</v>
       </c>
     </row>
     <row r="7">
@@ -1145,73 +1145,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05145883074634414</v>
+        <v>0.05145883074651277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4791966728548737</v>
+        <v>0.4791966728548659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5754351840258498</v>
+        <v>0.5754351840370517</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8288211088525852</v>
+        <v>0.8288211088499204</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3230325250703909</v>
+        <v>0.3230325250721351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7361323912177813</v>
+        <v>0.7361323912065458</v>
       </c>
       <c r="H7" t="n">
-        <v>0.993645602868535</v>
+        <v>0.9936456028659342</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2837100289576474</v>
+        <v>0.28371002896104</v>
       </c>
       <c r="J7" t="n">
-        <v>0.688806700588372</v>
+        <v>0.6888067005752313</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4506214233006788</v>
+        <v>0.450621423298695</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05397890624454649</v>
+        <v>0.0539789062393126</v>
       </c>
       <c r="M7" t="n">
-        <v>0.592353407874609</v>
+        <v>0.5923534078666739</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2961857844022385</v>
+        <v>0.2961857842665147</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08397202875909707</v>
+        <v>0.0839720287590946</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1398628048652542</v>
+        <v>0.1398628048652547</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4623466335985338</v>
+        <v>0.462346633598533</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8582949033163005</v>
+        <v>0.8582949033162987</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4369942765131364</v>
+        <v>0.4369942765131388</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3354761674520899</v>
+        <v>0.3354761674520907</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3505328854361982</v>
+        <v>0.350532885436198</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7490090473982393</v>
+        <v>0.7490090473982356</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7655762071868578</v>
+        <v>0.7655762071868644</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1614221545824821</v>
+        <v>0.161422154582482</v>
       </c>
     </row>
     <row r="8">
@@ -1221,73 +1221,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.291694435308434</v>
+        <v>0.2916944353068682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1332279915646206</v>
+        <v>0.1332279915646099</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8615238611116097</v>
+        <v>0.8615238610835213</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7973981625386151</v>
+        <v>0.7973981625329395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4925632655069138</v>
+        <v>0.4925632655115594</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2044566342844015</v>
+        <v>0.2044566342728267</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3843431689925557</v>
+        <v>0.3843431689886664</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03255063207570756</v>
+        <v>0.03255063207699704</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8487072093809865</v>
+        <v>0.8487072093487391</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7493531290030953</v>
+        <v>0.7493531289981716</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6112618216961978</v>
+        <v>0.6112618215650438</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05522247834085521</v>
+        <v>0.05522247833745999</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8457643557523082</v>
+        <v>0.8457643561078929</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5477179547116302</v>
+        <v>0.5477179547116237</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1088429067367171</v>
+        <v>0.108842906736717</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09265715655445066</v>
+        <v>0.09265715655445048</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6379952287266162</v>
+        <v>0.6379952287266142</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2779057031856729</v>
+        <v>0.2779057031856716</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7755361944781108</v>
+        <v>0.7755361944781093</v>
       </c>
       <c r="U8" t="n">
-        <v>0.976611976826586</v>
+        <v>0.9766119768265853</v>
       </c>
       <c r="V8" t="n">
-        <v>0.08108760279572776</v>
+        <v>0.08108760279572726</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4662848925993456</v>
+        <v>0.4662848925993481</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1830419783149153</v>
+        <v>0.1830419783149157</v>
       </c>
     </row>
     <row r="9">
@@ -1297,73 +1297,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005632389763359432</v>
+        <v>0.005632389763367273</v>
       </c>
       <c r="C9" t="n">
-        <v>0.764955675314287</v>
+        <v>0.7649556753143331</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9908307366641305</v>
+        <v>0.9908307366585225</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7189036771380859</v>
+        <v>0.718903677139237</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6512806876424423</v>
+        <v>0.6512806876435397</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8564139861822359</v>
+        <v>0.8564139861867622</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5617448941081993</v>
+        <v>0.5617448941090268</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7464414018784076</v>
+        <v>0.7464414018745638</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3873636007575747</v>
+        <v>0.387363600755308</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9969741568994831</v>
+        <v>0.9969741568984678</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003231248890220075</v>
+        <v>0.003231248890606768</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6158190312521007</v>
+        <v>0.6158190312483061</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1580649026865513</v>
+        <v>0.1580649026480984</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04974403320674633</v>
+        <v>0.04974403320674505</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2067230717247516</v>
+        <v>0.2067230717247512</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4905900309076573</v>
+        <v>0.4905900309076563</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9769201900928839</v>
+        <v>0.9769201900928843</v>
       </c>
       <c r="S9" t="n">
-        <v>0.250172563160058</v>
+        <v>0.2501725631600596</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2928684805781062</v>
+        <v>0.2928684805781058</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5032523316122883</v>
+        <v>0.5032523316122888</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8827447754911212</v>
+        <v>0.8827447754911165</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7165997738188492</v>
+        <v>0.7165997738188536</v>
       </c>
       <c r="X9" t="n">
-        <v>0.906639437047747</v>
+        <v>0.9066394370477491</v>
       </c>
     </row>
     <row r="10">
@@ -1373,73 +1373,73 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0466381378323496</v>
+        <v>0.04663813783248729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5259610392959163</v>
+        <v>0.5259610392959286</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9909756823747791</v>
+        <v>0.9909756823867162</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9827271426098989</v>
+        <v>0.9827271426123738</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5135556274156463</v>
+        <v>0.5135556274176883</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9290907992719719</v>
+        <v>0.9290907992821047</v>
       </c>
       <c r="H10" t="n">
-        <v>0.869364157593997</v>
+        <v>0.8693641575916674</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4220358946897498</v>
+        <v>0.4220358946938696</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3325849801944865</v>
+        <v>0.3325849801880439</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5194891686369354</v>
+        <v>0.5194891686350098</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004453467444707191</v>
+        <v>0.004453467444597964</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4593671346688893</v>
+        <v>0.4593671346621919</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3417263873353007</v>
+        <v>0.3417263872038857</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2000392776953077</v>
+        <v>0.2000392776953034</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1843421073203717</v>
+        <v>0.184342107320372</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2104084861435763</v>
+        <v>0.2104084861435756</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4346716431351606</v>
+        <v>0.4346716431351596</v>
       </c>
       <c r="S10" t="n">
-        <v>0.605240436237531</v>
+        <v>0.6052404362375343</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4289402090033292</v>
+        <v>0.4289402090033297</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7359025378500199</v>
+        <v>0.7359025378500195</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7716948890692739</v>
+        <v>0.7716948890692706</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7930197493302527</v>
+        <v>0.7930197493302467</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1215989810726102</v>
+        <v>0.1215989810726099</v>
       </c>
     </row>
     <row r="11">
@@ -1449,73 +1449,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3370874941887603</v>
+        <v>0.3370874941899296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2837322015967824</v>
+        <v>0.2837322015968363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5754336138829735</v>
+        <v>0.5754336139000986</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07650780313571108</v>
+        <v>0.07650780313667911</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7664372866291084</v>
+        <v>0.7664372866330735</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7349103349558378</v>
+        <v>0.7349103349390183</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01278040600480919</v>
+        <v>0.01278040600495776</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1602464337838222</v>
+        <v>0.1602464337873497</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0258964880931087</v>
+        <v>0.02589648809187677</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02094026270274841</v>
+        <v>0.02094026270293171</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6822821070975836</v>
+        <v>0.682282107210294</v>
       </c>
       <c r="M11" t="n">
-        <v>0.274084206731973</v>
+        <v>0.2740842067234476</v>
       </c>
       <c r="N11" t="n">
-        <v>0.26907428260076</v>
+        <v>0.2690742825966483</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5111922660240218</v>
+        <v>0.5111922660240265</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03426662211019636</v>
+        <v>0.03426662211019662</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6335125782033139</v>
+        <v>0.6335125782033131</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6802049796362174</v>
+        <v>0.6802049796362162</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4946007931661207</v>
+        <v>0.4946007931661234</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3203961567668838</v>
+        <v>0.3203961567668863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1791224701633152</v>
+        <v>0.1791224701633158</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9536635256425405</v>
+        <v>0.9536635256425432</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9610554374446667</v>
+        <v>0.9610554374446556</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9334779832222817</v>
+        <v>0.9334779832222789</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1886424052248075</v>
+        <v>0.1886424052248072</v>
       </c>
     </row>
     <row r="5">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1261761105987044</v>
+        <v>0.1261761105987047</v>
       </c>
     </row>
     <row r="6">
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1738037700602952</v>
+        <v>0.1738037700602951</v>
       </c>
     </row>
     <row r="8">

--- a/DataIntermediate/resultados_regresiones.xlsx
+++ b/DataIntermediate/resultados_regresiones.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2332801434865002</v>
+        <v>0.314648208393887</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2000146828987399</v>
+        <v>0.2892410690173153</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3297508030640129</v>
+        <v>0.337763713672747</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3280944918267935</v>
+        <v>0.3463414080270697</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2763645915895523</v>
+        <v>0.3607262826801678</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3158062470811819</v>
+        <v>0.3892858094266229</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2160136403150758</v>
+        <v>0.2952011167710191</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3684396366103975</v>
+        <v>0.4107248878397699</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2172529261356944</v>
+        <v>0.3171669178837616</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2844930978024161</v>
+        <v>0.3633650763900297</v>
       </c>
     </row>
     <row r="11">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3238354111684546</v>
+        <v>0.3425148933864568</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.07414960722898134</v>
+        <v>0.1314353532120548</v>
       </c>
     </row>
     <row r="2">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03397999444376143</v>
+        <v>0.0992362062793698</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1906424791716383</v>
+        <v>0.1607302509912042</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1886424052248072</v>
+        <v>0.1716009923511378</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1261761105987047</v>
+        <v>0.1898313285451632</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1738037700602951</v>
+        <v>0.2260255802634429</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05329949019178959</v>
+        <v>0.106789534125648</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2373610706238762</v>
+        <v>0.2531958974603025</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05479598627706495</v>
+        <v>0.1346273810804107</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1359916652708421</v>
+        <v>0.1931755423556811</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1834993644298321</v>
+        <v>0.1667515480541235</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,73 +689,88 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.0003192662679561087</v>
+        <v>0.0004139928709682987</v>
       </c>
       <c r="C1" t="n">
-        <v>0.3026798385132411</v>
+        <v>0.1151210208317256</v>
       </c>
       <c r="D1" t="n">
-        <v>0.05483045758228317</v>
+        <v>0.1500656946996005</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1622890881832323</v>
+        <v>0.003896346021540899</v>
       </c>
       <c r="F1" t="n">
-        <v>0.2485923971175055</v>
+        <v>0.01329627721108939</v>
       </c>
       <c r="G1" t="n">
-        <v>0.5912856606731445</v>
+        <v>0.0102766133311377</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4097743454884323</v>
+        <v>0.2484258780735239</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3655822997171867</v>
+        <v>0.3950927164990987</v>
       </c>
       <c r="J1" t="n">
-        <v>0.03378940763050842</v>
+        <v>0.5503285851377906</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8243987381364629</v>
+        <v>0.5810571285231321</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9235633080242278</v>
+        <v>0.5966706443505249</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3199437998256048</v>
+        <v>0.04336581807008101</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4325594243247964</v>
+        <v>0.009679760335245978</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1594579455249263</v>
+        <v>0.8299091677585522</v>
       </c>
       <c r="P1" t="n">
-        <v>0.211869283307704</v>
+        <v>0.6813929303603886</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6583291162622167</v>
+        <v>0.243718345217564</v>
       </c>
       <c r="R1" t="n">
-        <v>0.726061000442272</v>
+        <v>0.6933683016170096</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6249582089611105</v>
+        <v>0.01961249510953438</v>
       </c>
       <c r="T1" t="n">
-        <v>0.5829088151045274</v>
+        <v>0.297262807367821</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0102967500764839</v>
+        <v>0.3860751993388274</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1613100203379013</v>
+        <v>0.8808904663625907</v>
       </c>
       <c r="W1" t="n">
-        <v>0.5976684997682713</v>
+        <v>0.8860284233338943</v>
       </c>
       <c r="X1" t="n">
-        <v>0.2924628094825781</v>
+        <v>0.5777324186857782</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>0.4999981411578343</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>0.00106721709442823</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.03141655975048346</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.3750645325109596</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.2623583896403122</v>
       </c>
     </row>
     <row r="2">
@@ -765,73 +780,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002214669665446589</v>
+        <v>0.003265055510172715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03117946414841146</v>
+        <v>0.1106549297250164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3284491835024123</v>
+        <v>0.2127046296797881</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04188618644898818</v>
+        <v>0.05056830372993838</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7051078353894835</v>
+        <v>0.001590063818718404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.621913807456886</v>
+        <v>0.04926330096213603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7974494408512545</v>
+        <v>0.1881639992941448</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1080495857717755</v>
+        <v>0.5974922061853769</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8380274925688751</v>
+        <v>0.8447179358059413</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04546743935324062</v>
+        <v>0.4994698333320897</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2054486190666639</v>
+        <v>0.5798395646490719</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4069163433805177</v>
+        <v>0.042924402895097</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5025501397961472</v>
+        <v>0.9553671885346766</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3978201826170038</v>
+        <v>0.1048321424592351</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4028271783097848</v>
+        <v>0.2959970676638896</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2159082402608898</v>
+        <v>0.327997516422892</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8619976882302086</v>
+        <v>0.91827277649437</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1315673653992723</v>
+        <v>0.009384197623856342</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3651465516010139</v>
+        <v>0.7368050028327899</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7652381888413764</v>
+        <v>0.8189795086019916</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6589388533947049</v>
+        <v>0.4339595627402305</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9365342551581393</v>
+        <v>0.7512326106562067</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9303194946496175</v>
+        <v>0.1644651945960204</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.329066535130667</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.5261732865469213</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.1911141713146485</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.778542506435159</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.4742819917075867</v>
       </c>
     </row>
     <row r="3">
@@ -841,73 +871,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9262339247541844</v>
+        <v>0.9640035125439661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8849756146668244</v>
+        <v>0.4260621898296368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.365943329773177</v>
+        <v>0.428822781900299</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9657147515742615</v>
+        <v>0.7941964312149804</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1836899160634984</v>
+        <v>0.8762415887837184</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04864674748969078</v>
+        <v>0.5815522684298395</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03414995199475152</v>
+        <v>0.9877927780284984</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5564872950183798</v>
+        <v>0.1599583100975382</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9973196713335124</v>
+        <v>0.05658980012935177</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1000177581543518</v>
+        <v>0.4841058688108639</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4695398387541886</v>
+        <v>0.5781498787329327</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7601682862232375</v>
+        <v>0.6223744155842419</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4468935349687552</v>
+        <v>0.9957605106919489</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02175039374796357</v>
+        <v>0.1119958327684205</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06525832175333932</v>
+        <v>0.4461880986062152</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3267345213010139</v>
+        <v>0.7869170799582227</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09664007503094812</v>
+        <v>0.4976562836481941</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9970739076643564</v>
+        <v>0.9159569205715863</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5835991598562162</v>
+        <v>0.03736579608999685</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08069165695457899</v>
+        <v>0.07131684105444486</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9950892339218796</v>
+        <v>0.3332081304278209</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03235093162712364</v>
+        <v>0.1342240828412485</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5834437107255472</v>
+        <v>0.9380949223214059</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.6802052078125447</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1478019220793385</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9720865546323418</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02959946087332164</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.8213682588267391</v>
       </c>
     </row>
     <row r="4">
@@ -917,73 +962,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4156846837756306</v>
+        <v>0.2212291972766952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.374104303660725</v>
+        <v>0.5170814158277903</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8236595930428047</v>
+        <v>0.4337627947003037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5876062623703842</v>
+        <v>0.6092813841027378</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3238345321513222</v>
+        <v>0.3907278508729536</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05531727845439421</v>
+        <v>0.3625181420670707</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6705374850528967</v>
+        <v>0.1709405242633848</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2679293629232434</v>
+        <v>0.03536957667494211</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4544064390140841</v>
+        <v>0.5904700193519276</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1721703057637936</v>
+        <v>0.3573485396158953</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6613445542742542</v>
+        <v>0.7401403148579703</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2799502667896444</v>
+        <v>0.3461835039320315</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1130071520680406</v>
+        <v>0.5332044968972034</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3161250339673039</v>
+        <v>0.2149829931641168</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6304311292814515</v>
+        <v>0.9348048983711559</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0004543738471264346</v>
+        <v>0.2241684037163882</v>
       </c>
       <c r="R4" t="n">
-        <v>0.105220142815957</v>
+        <v>0.1486266075353213</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009099653481862417</v>
+        <v>0.5692553267629388</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2210738708137328</v>
+        <v>0.3576820396016221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.244965424591611</v>
+        <v>0.8180409421919164</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7038760805170217</v>
+        <v>0.0006484124470979099</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9801896450530125</v>
+        <v>0.1633921210684707</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06954104510278063</v>
+        <v>0.02414048365719993</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.3669311631354204</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.4062644307223741</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.7578677102589477</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.6337289505338631</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.06340052079026333</v>
       </c>
     </row>
     <row r="5">
@@ -993,73 +1053,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4980560139442318</v>
+        <v>0.5712854167047814</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1268131508371719</v>
+        <v>0.7228387288997749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3376681044230546</v>
+        <v>0.9863038455225523</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7738163308116839</v>
+        <v>0.5182978349784975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3418113783251212</v>
+        <v>0.8627420246627254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9672033470128198</v>
+        <v>0.4960961567290284</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04837713127111361</v>
+        <v>0.6399013374088641</v>
       </c>
       <c r="I5" t="n">
-        <v>0.268201254227634</v>
+        <v>0.406660464088103</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7872206450675618</v>
+        <v>0.08922687453742531</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7230161259580246</v>
+        <v>0.0007692005853912367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8203570021824653</v>
+        <v>0.7204247932619603</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4145741285160541</v>
+        <v>0.2222761217417651</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5676032387056801</v>
+        <v>0.649143330060544</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6765508892168899</v>
+        <v>0.776395457568122</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002713971018569935</v>
+        <v>0.4843772407172749</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6680680153103812</v>
+        <v>0.5293357190659476</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5069197808404832</v>
+        <v>0.5172123865317557</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5166659025561314</v>
+        <v>0.7165816541509551</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8362854614227877</v>
+        <v>0.8733979972674535</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2882732258878153</v>
+        <v>0.007000171785162508</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2594829306745169</v>
+        <v>0.4976309813411239</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9464434852769223</v>
+        <v>0.4312063865362863</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3893197266582031</v>
+        <v>0.5803595205944092</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.8653398256772349</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.5432067663651384</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.3876726578036593</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.07064059421984227</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02923613649361611</v>
       </c>
     </row>
     <row r="6">
@@ -1069,73 +1144,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02465145150008474</v>
+        <v>0.06527397259984592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3644085339165951</v>
+        <v>0.4115692493364356</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5039213074420614</v>
+        <v>0.2946468541100222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6092876922240579</v>
+        <v>0.9104270929220013</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7896974270837051</v>
+        <v>0.8712900127353467</v>
       </c>
       <c r="G6" t="n">
-        <v>0.532060666388241</v>
+        <v>0.9830990686534808</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6249340783245316</v>
+        <v>0.01227687758940414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7238325012000512</v>
+        <v>0.1268930845262476</v>
       </c>
       <c r="J6" t="n">
-        <v>0.048841176843244</v>
+        <v>0.6818466595001957</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8169526427831179</v>
+        <v>0.09377535063480683</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004121804308392387</v>
+        <v>0.3938563810147417</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3785696296428647</v>
+        <v>0.4631299197313534</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2911785685658051</v>
+        <v>0.03450505407220683</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3857984132263781</v>
+        <v>0.8909695336073196</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2761669566253897</v>
+        <v>0.0004255636061791559</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3056724333081223</v>
+        <v>0.3061699032611666</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4120121692598311</v>
+        <v>0.4162220701871842</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7964664491071878</v>
+        <v>0.8152665196999658</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5785463068592107</v>
+        <v>0.4442389783156685</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7707288939025629</v>
+        <v>0.4531145559021782</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6464161701352471</v>
+        <v>0.1605242887898985</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4948394289273207</v>
+        <v>0.1572849019401996</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6424889026128843</v>
+        <v>0.9416885255047187</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.6778474339178171</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.6846642663883388</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.3103045681885166</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.8270614749251143</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5544840447543218</v>
       </c>
     </row>
     <row r="7">
@@ -1145,73 +1235,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05145883074651277</v>
+        <v>0.1500472598266012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4791966728548659</v>
+        <v>0.4074417300031881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5754351840370517</v>
+        <v>0.3129448864184115</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8288211088499204</v>
+        <v>0.899500948321257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3230325250721351</v>
+        <v>0.7672849541759004</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7361323912065458</v>
+        <v>0.4843006155690804</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9936456028659342</v>
+        <v>0.005845637177632453</v>
       </c>
       <c r="I7" t="n">
-        <v>0.28371002896104</v>
+        <v>0.0199727071538817</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6888067005752313</v>
+        <v>0.8377270749885881</v>
       </c>
       <c r="K7" t="n">
-        <v>0.450621423298695</v>
+        <v>0.3246616504423075</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0539789062393126</v>
+        <v>0.3516652517904844</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5923534078666739</v>
+        <v>0.1534101637245241</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2961857842665147</v>
+        <v>0.5997110645370511</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0839720287590946</v>
+        <v>0.6771600955086249</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1398628048652547</v>
+        <v>0.07062611121643603</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.462346633598533</v>
+        <v>0.5320232610366595</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8582949033162987</v>
+        <v>0.4071430167834944</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4369942765131388</v>
+        <v>0.9617024214371959</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3354761674520907</v>
+        <v>0.1026208363917178</v>
       </c>
       <c r="U7" t="n">
-        <v>0.350532885436198</v>
+        <v>0.209107124600082</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7490090473982356</v>
+        <v>0.299270981996213</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7655762071868644</v>
+        <v>0.4030796195996157</v>
       </c>
       <c r="X7" t="n">
-        <v>0.161422154582482</v>
+        <v>0.6703385182613515</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.4283711900401495</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.2469722016123294</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8760462404355179</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.8610326532128025</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.5754826856733275</v>
       </c>
     </row>
     <row r="8">
@@ -1221,73 +1326,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2916944353068682</v>
+        <v>0.3545576852648015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1332279915646099</v>
+        <v>0.6731635043871039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8615238610835213</v>
+        <v>0.4377534901301984</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7973981625329395</v>
+        <v>0.940313567774679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4925632655115594</v>
+        <v>0.7786458684631603</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2044566342728267</v>
+        <v>0.7574931348505228</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3843431689886664</v>
+        <v>0.4079151900780285</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03255063207699704</v>
+        <v>0.1008337533374363</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8487072093487391</v>
+        <v>0.4110449075410135</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7493531289981716</v>
+        <v>0.05824050314150171</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6112618215650438</v>
+        <v>0.48739459000706</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05522247833745999</v>
+        <v>0.1332095544029948</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8457643561078929</v>
+        <v>0.8758394479781167</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5477179547116237</v>
+        <v>0.6706890735898017</v>
       </c>
       <c r="P8" t="n">
-        <v>0.108842906736717</v>
+        <v>0.4560050015574264</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09265715655445048</v>
+        <v>0.0316315409366574</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6379952287266142</v>
+        <v>0.871631580241908</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2779057031856716</v>
+        <v>0.9657686082896988</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7755361944781093</v>
+        <v>0.448843222145406</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9766119768265853</v>
+        <v>0.1923263179575458</v>
       </c>
       <c r="V8" t="n">
-        <v>0.08108760279572726</v>
+        <v>0.06381687999387342</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4662848925993481</v>
+        <v>0.6744758265471376</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1830419783149157</v>
+        <v>0.2563533543750572</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.8196856056781543</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.8403937695881082</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.1843117391326698</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.7029533764570868</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.6018679874780418</v>
       </c>
     </row>
     <row r="9">
@@ -1297,73 +1417,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005632389763367273</v>
+        <v>0.03552379185870463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7649556753143331</v>
+        <v>0.911332343405681</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9908307366585225</v>
+        <v>0.8248826794835201</v>
       </c>
       <c r="E9" t="n">
-        <v>0.718903677139237</v>
+        <v>0.5834817795090077</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6512806876435397</v>
+        <v>0.6930037087091918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8564139861867622</v>
+        <v>0.411798117805418</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5617448941090268</v>
+        <v>0.001895512532837737</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7464414018745638</v>
+        <v>0.02055732973282794</v>
       </c>
       <c r="J9" t="n">
-        <v>0.387363600755308</v>
+        <v>0.6330379611883219</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9969741568984678</v>
+        <v>0.188883846247992</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003231248890606768</v>
+        <v>0.2253886601268431</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6158190312483061</v>
+        <v>0.4518829334361011</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1580649026480984</v>
+        <v>0.2468684564590886</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04974403320674505</v>
+        <v>0.6444945655250567</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2067230717247512</v>
+        <v>0.004018707367806075</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4905900309076563</v>
+        <v>0.615259971812975</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9769201900928843</v>
+        <v>0.2072102244907419</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2501725631600596</v>
+        <v>0.6143233187218253</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2928684805781058</v>
+        <v>0.04862447381392675</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5032523316122888</v>
+        <v>0.2352203495980102</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8827447754911165</v>
+        <v>0.3233782172535661</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7165997738188536</v>
+        <v>0.3588243869753137</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9066394370477491</v>
+        <v>0.4916842570214499</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.4672785488050419</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.5213777440503362</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.8623271858122347</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.7440805197903139</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.2881942385172418</v>
       </c>
     </row>
     <row r="10">
@@ -1373,73 +1508,88 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04663813783248729</v>
+        <v>0.1200833457189325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5259610392959286</v>
+        <v>0.2535861644640119</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9909756823867162</v>
+        <v>0.1900489745920208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9827271426123738</v>
+        <v>0.6999501416165799</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5135556274176883</v>
+        <v>0.7079541950071176</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9290907992821047</v>
+        <v>0.9525727771934411</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8693641575916674</v>
+        <v>0.007227564248221172</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4220358946938696</v>
+        <v>0.04788338244717909</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3325849801880439</v>
+        <v>0.7322967498115214</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5194891686350098</v>
+        <v>0.2316192305345577</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004453467444597964</v>
+        <v>0.3220095730979029</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4593671346621919</v>
+        <v>0.3041084362314609</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3417263872038857</v>
+        <v>0.2935648934700439</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2000392776953034</v>
+        <v>0.7974510233154943</v>
       </c>
       <c r="P10" t="n">
-        <v>0.184342107320372</v>
+        <v>0.006082724587204545</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2104084861435756</v>
+        <v>0.3818594096547776</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4346716431351596</v>
+        <v>0.5206905958838728</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6052404362375343</v>
+        <v>0.6314423352470668</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4289402090033297</v>
+        <v>0.2730722497249047</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7359025378500195</v>
+        <v>0.3291570266640141</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7716948890692706</v>
+        <v>0.09886967847624561</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7930197493302467</v>
+        <v>0.1637737737863772</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1215989810726099</v>
+        <v>0.8510085176512774</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.5006020871664975</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.5484288458821769</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.7405248155782722</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4528350832777417</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.5654625796273958</v>
       </c>
     </row>
     <row r="11">
@@ -1449,73 +1599,88 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3370874941899296</v>
+        <v>0.2932119518015475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2837322015968363</v>
+        <v>0.3231392623804752</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5754336139000986</v>
+        <v>0.2691426986776804</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07650780313667911</v>
+        <v>0.4762786237246357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7664372866330735</v>
+        <v>0.2035117213010891</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7349103349390183</v>
+        <v>0.8139809380427941</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01278040600495776</v>
+        <v>0.559030928414487</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1602464337873497</v>
+        <v>0.824120793924194</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02589648809187677</v>
+        <v>0.02020801372474004</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02094026270293171</v>
+        <v>0.3018286730426317</v>
       </c>
       <c r="L11" t="n">
-        <v>0.682282107210294</v>
+        <v>0.4475633053467197</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2740842067234476</v>
+        <v>0.2978887751143373</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2690742825966483</v>
+        <v>0.03493665705805638</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5111922660240265</v>
+        <v>0.02121077326648397</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03426662211019662</v>
+        <v>0.6068745877746162</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6335125782033131</v>
+        <v>0.2837042588064748</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6802049796362162</v>
+        <v>0.2192036336134589</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4946007931661234</v>
+        <v>0.5989606285513209</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3203961567668863</v>
+        <v>0.3655444891876464</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1791224701633158</v>
+        <v>0.03113051267870156</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9536635256425432</v>
+        <v>0.6474802872358385</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9610554374446556</v>
+        <v>0.7168049688742888</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9334779832222789</v>
+        <v>0.6166802920917143</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.434338293951347</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.1736131028729024</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.9141722804483261</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.5692625941879466</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.7938968967303132</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1537,6 +1702,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Degree_Rede_EntreajudaLabur</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.1314353532120548</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -1544,7 +1719,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1906424791716383</v>
+        <v>0.1607302509912042</v>
       </c>
     </row>
     <row r="4">
@@ -1554,7 +1729,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1886424052248072</v>
+        <v>0.1716009923511378</v>
       </c>
     </row>
     <row r="5">
@@ -1564,7 +1739,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1261761105987047</v>
+        <v>0.1898313285451632</v>
       </c>
     </row>
     <row r="6">
@@ -1574,7 +1749,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1738037700602951</v>
+        <v>0.2260255802634429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.106789534125648</v>
       </c>
     </row>
     <row r="8">
@@ -1584,7 +1769,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2373610706238762</v>
+        <v>0.2531958974603025</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1346273810804107</v>
       </c>
     </row>
     <row r="10">
@@ -1594,7 +1789,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1359916652708421</v>
+        <v>0.1931755423556811</v>
       </c>
     </row>
     <row r="11">
@@ -1604,7 +1799,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1834993644298321</v>
+        <v>0.1667515480541235</v>
       </c>
     </row>
   </sheetData>

--- a/DataIntermediate/resultados_regresiones.xlsx
+++ b/DataIntermediate/resultados_regresiones.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.314648208393887</v>
+        <v>0.4030976049049029</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2892410690173153</v>
+        <v>0.2892992812609153</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.337763713672747</v>
+        <v>0.3404847182103248</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3463414080270697</v>
+        <v>0.3326554295679346</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3607262826801678</v>
+        <v>0.3595556653328901</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3892858094266229</v>
+        <v>0.3872376226745848</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2952011167710191</v>
+        <v>0.2903928263120256</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4107248878397699</v>
+        <v>0.4152753050597068</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3171669178837616</v>
+        <v>0.3109068240986995</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3633650763900297</v>
+        <v>0.3610734442332768</v>
       </c>
     </row>
     <row r="11">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3425148933864568</v>
+        <v>0.333602005196685</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.1314353532120548</v>
+        <v>0.2435296378992828</v>
       </c>
     </row>
     <row r="2">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0992362062793698</v>
+        <v>0.099309980211853</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1607302509912042</v>
+        <v>0.1641786527814016</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1716009923511378</v>
+        <v>0.1542563859870855</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1898313285451632</v>
+        <v>0.188347773887227</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2260255802634429</v>
+        <v>0.2234298584390778</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.106789534125648</v>
+        <v>0.1006958590885076</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2531958974603025</v>
+        <v>0.2589627628479452</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1346273810804107</v>
+        <v>0.1266937968775598</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1931755423556811</v>
+        <v>0.1902712956619745</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1667515480541235</v>
+        <v>0.1554560065858979</v>
       </c>
     </row>
   </sheetData>
@@ -689,88 +689,88 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.0004139928709682987</v>
+        <v>0.8417814867328168</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1151210208317256</v>
+        <v>0.2636718498637532</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1500656946996005</v>
+        <v>0.3491375520943799</v>
       </c>
       <c r="E1" t="n">
-        <v>0.003896346021540899</v>
+        <v>0.001831926995122671</v>
       </c>
       <c r="F1" t="n">
-        <v>0.01329627721108939</v>
+        <v>0.02952172182074858</v>
       </c>
       <c r="G1" t="n">
-        <v>0.0102766133311377</v>
+        <v>0.007424627989425388</v>
       </c>
       <c r="H1" t="n">
-        <v>0.2484258780735239</v>
+        <v>0.205761112236049</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3950927164990987</v>
+        <v>0.5190950201303681</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5503285851377906</v>
+        <v>0.6319878365234823</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5810571285231321</v>
+        <v>0.799061303763383</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5966706443505249</v>
+        <v>0.6560588825523056</v>
       </c>
       <c r="M1" t="n">
-        <v>0.04336581807008101</v>
+        <v>0.1177474474192239</v>
       </c>
       <c r="N1" t="n">
-        <v>0.009679760335245978</v>
+        <v>0.2879516253165925</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8299091677585522</v>
+        <v>0.6800990368302656</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6813929303603886</v>
+        <v>0.004373669065717612</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.243718345217564</v>
+        <v>0.5513279371294626</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6933683016170096</v>
+        <v>0.0001786393149179287</v>
       </c>
       <c r="S1" t="n">
-        <v>0.01961249510953438</v>
+        <v>0.007915089335447351</v>
       </c>
       <c r="T1" t="n">
-        <v>0.297262807367821</v>
+        <v>0.2875377601078369</v>
       </c>
       <c r="U1" t="n">
-        <v>0.3860751993388274</v>
+        <v>0.0070319754608143</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8808904663625907</v>
+        <v>0.4518882736233095</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8860284233338943</v>
+        <v>0.2778554665154102</v>
       </c>
       <c r="X1" t="n">
-        <v>0.5777324186857782</v>
+        <v>0.3721994913173508</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.4999981411578343</v>
+        <v>0.5799295172998659</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.00106721709442823</v>
+        <v>0.003294461839891509</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.03141655975048346</v>
+        <v>0.03885444649476023</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.3750645325109596</v>
+        <v>0.4111553952455109</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.2623583896403122</v>
+        <v>0.7818987283349808</v>
       </c>
     </row>
     <row r="2">
@@ -780,88 +780,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.003265055510172715</v>
+        <v>0.02375043742969527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1106549297250164</v>
+        <v>0.1073572271793384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2127046296797881</v>
+        <v>0.2067849033913336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05056830372993838</v>
+        <v>0.04766549373645818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001590063818718404</v>
+        <v>0.001630250093145511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04926330096213603</v>
+        <v>0.04553711226085804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1881639992941448</v>
+        <v>0.1859859845545214</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5974922061853769</v>
+        <v>0.5964220914094107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8447179358059413</v>
+        <v>0.8387939777811376</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4994698333320897</v>
+        <v>0.5095237825369723</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5798395646490719</v>
+        <v>0.5732824205408686</v>
       </c>
       <c r="M2" t="n">
-        <v>0.042924402895097</v>
+        <v>0.04331917708020284</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9553671885346766</v>
+        <v>0.9224982834310611</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1048321424592351</v>
+        <v>0.1051921292270367</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2959970676638896</v>
+        <v>0.3642611122348743</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.327997516422892</v>
+        <v>0.3434480757402509</v>
       </c>
       <c r="R2" t="n">
-        <v>0.91827277649437</v>
+        <v>0.891055936457596</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009384197623856342</v>
+        <v>0.008314958177436054</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7368050028327899</v>
+        <v>0.7470198061058191</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8189795086019916</v>
+        <v>0.9185833435084131</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4339595627402305</v>
+        <v>0.4310305040180122</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7512326106562067</v>
+        <v>0.7507388546658559</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1644651945960204</v>
+        <v>0.1615298508565926</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.329066535130667</v>
+        <v>0.3297530858597806</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5261732865469213</v>
+        <v>0.5198003528585318</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1911141713146485</v>
+        <v>0.1834255894586183</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.778542506435159</v>
+        <v>0.7896326947511075</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4742819917075867</v>
+        <v>0.4948963109313614</v>
       </c>
     </row>
     <row r="3">
@@ -871,88 +871,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9640035125439661</v>
+        <v>0.5244635428068976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4260621898296368</v>
+        <v>0.4833578709185503</v>
       </c>
       <c r="D3" t="n">
-        <v>0.428822781900299</v>
+        <v>0.4945863166239952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7941964312149804</v>
+        <v>0.7392169627053686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8762415887837184</v>
+        <v>0.7700725278547405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5815522684298395</v>
+        <v>0.5417686205047205</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9877927780284984</v>
+        <v>0.9592899506349364</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1599583100975382</v>
+        <v>0.1918495114186566</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05658980012935177</v>
+        <v>0.05999013637522568</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4841058688108639</v>
+        <v>0.5318941978197615</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5781498787329327</v>
+        <v>0.5182424825967915</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6223744155842419</v>
+        <v>0.7368435568380391</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9957605106919489</v>
+        <v>0.6819007309191556</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1119958327684205</v>
+        <v>0.07651620282420128</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4461880986062152</v>
+        <v>0.1742364844355967</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7869170799582227</v>
+        <v>0.5439639760167427</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4976562836481941</v>
+        <v>0.3499262522411721</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9159569205715863</v>
+        <v>0.9879805070976364</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03736579608999685</v>
+        <v>0.04553170347304514</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07131684105444486</v>
+        <v>0.1359252229724406</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3332081304278209</v>
+        <v>0.5184413777611927</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1342240828412485</v>
+        <v>0.2512783321987999</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9380949223214059</v>
+        <v>0.9232696201353147</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6802052078125447</v>
+        <v>0.6002129334558687</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1478019220793385</v>
+        <v>0.1117077736217082</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9720865546323418</v>
+        <v>0.9742033261554052</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02959946087332164</v>
+        <v>0.02735232514285601</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8213682588267391</v>
+        <v>0.6161221705900495</v>
       </c>
     </row>
     <row r="4">
@@ -962,88 +962,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2212291972766952</v>
+        <v>0.3999929792663647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5170814158277903</v>
+        <v>0.5948492503645508</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4337627947003037</v>
+        <v>0.5009214037373009</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6092813841027378</v>
+        <v>0.5008845239934936</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3907278508729536</v>
+        <v>0.4348552374385555</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3625181420670707</v>
+        <v>0.274347571350979</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1709405242633848</v>
+        <v>0.1533272998406763</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03536957667494211</v>
+        <v>0.04739015087125187</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5904700193519276</v>
+        <v>0.6101441316730711</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3573485396158953</v>
+        <v>0.3575967755612792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7401403148579703</v>
+        <v>0.850797150307895</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3461835039320315</v>
+        <v>0.3746069718001762</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5332044968972034</v>
+        <v>0.4831986327906239</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2149829931641168</v>
+        <v>0.2714807508987917</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9348048983711559</v>
+        <v>0.7634342598949686</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2241684037163882</v>
+        <v>0.325910639393034</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1486266075353213</v>
+        <v>0.9511492261849811</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5692553267629388</v>
+        <v>0.4295554436179833</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3576820396016221</v>
+        <v>0.5093743523061263</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8180409421919164</v>
+        <v>0.4459791346892137</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0006484124470979099</v>
+        <v>0.001850378147133524</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1633921210684707</v>
+        <v>0.3099528511930414</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02414048365719993</v>
+        <v>0.04465472538891131</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3669311631354204</v>
+        <v>0.4644671381394591</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4062644307223741</v>
+        <v>0.3826941805193546</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7578677102589477</v>
+        <v>0.8667734416878273</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6337289505338631</v>
+        <v>0.548069743751868</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06340052079026333</v>
+        <v>0.1008714083551703</v>
       </c>
     </row>
     <row r="5">
@@ -1053,88 +1053,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5712854167047814</v>
+        <v>0.9676879151660709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7228387288997749</v>
+        <v>0.8214966880894973</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9863038455225523</v>
+        <v>0.88698264727557</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5182978349784975</v>
+        <v>0.5678818407252302</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8627420246627254</v>
+        <v>0.8387188959406575</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4960961567290284</v>
+        <v>0.5604100332889874</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6399013374088641</v>
+        <v>0.6174231498603775</v>
       </c>
       <c r="I5" t="n">
-        <v>0.406660464088103</v>
+        <v>0.4156261258701593</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08922687453742531</v>
+        <v>0.09591515289381763</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0007692005853912367</v>
+        <v>0.000959474777527617</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7204247932619603</v>
+        <v>0.7593440963481732</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2222761217417651</v>
+        <v>0.2521246494872548</v>
       </c>
       <c r="N5" t="n">
-        <v>0.649143330060544</v>
+        <v>0.779391731382441</v>
       </c>
       <c r="O5" t="n">
-        <v>0.776395457568122</v>
+        <v>0.757536118087424</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4843772407172749</v>
+        <v>0.469486688053309</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5293357190659476</v>
+        <v>0.7736265417723436</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5172123865317557</v>
+        <v>0.6274156757839338</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7165816541509551</v>
+        <v>0.781672554571489</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8733979972674535</v>
+        <v>0.7770169236363826</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007000171785162508</v>
+        <v>0.04070206783086376</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4976309813411239</v>
+        <v>0.5010823966092123</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4312063865362863</v>
+        <v>0.3909928104655345</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5803595205944092</v>
+        <v>0.6392350295824976</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8653398256772349</v>
+        <v>0.9112744399661284</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5432067663651384</v>
+        <v>0.5172361175489117</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3876726578036593</v>
+        <v>0.4445103702346217</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07064059421984227</v>
+        <v>0.08301711590572375</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02923613649361611</v>
+        <v>0.03572016107851608</v>
       </c>
     </row>
     <row r="6">
@@ -1144,88 +1144,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06527397259984592</v>
+        <v>0.3147774005691378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4115692493364356</v>
+        <v>0.429867423377859</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2946468541100222</v>
+        <v>0.3161471218721142</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9104270929220013</v>
+        <v>0.9802431286901653</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8712900127353467</v>
+        <v>0.7949481060878767</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9830990686534808</v>
+        <v>0.9492069433488077</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01227687758940414</v>
+        <v>0.01099640448253675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1268930845262476</v>
+        <v>0.1514749943148615</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6818466595001957</v>
+        <v>0.6903284920472303</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09377535063480683</v>
+        <v>0.08803560465058113</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3938563810147417</v>
+        <v>0.3440693855700289</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4631299197313534</v>
+        <v>0.4102139721778172</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03450505407220683</v>
+        <v>0.02590616505808611</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8909695336073196</v>
+        <v>0.7750633966063002</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0004255636061791559</v>
+        <v>0.01874569565963307</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3061699032611666</v>
+        <v>0.4656361669192324</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4162220701871842</v>
+        <v>0.5689375195711009</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8152665196999658</v>
+        <v>0.7105582192675013</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4442389783156685</v>
+        <v>0.5306707964129846</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4531145559021782</v>
+        <v>0.498652537551637</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1605242887898985</v>
+        <v>0.1007587305762192</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1572849019401996</v>
+        <v>0.08001220489750734</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9416885255047187</v>
+        <v>0.7996792698424573</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6778474339178171</v>
+        <v>0.7602352039454956</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6846642663883388</v>
+        <v>0.7699244417042836</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3103045681885166</v>
+        <v>0.2925175752066057</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8270614749251143</v>
+        <v>0.8650224610367561</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5544840447543218</v>
+        <v>0.4291683765846607</v>
       </c>
     </row>
     <row r="7">
@@ -1235,88 +1235,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1500472598266012</v>
+        <v>0.2920738398956164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4074417300031881</v>
+        <v>0.3821186781828541</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3129448864184115</v>
+        <v>0.2961824452321424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.899500948321257</v>
+        <v>0.8250128038368095</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7672849541759004</v>
+        <v>0.7999982958413765</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4843006155690804</v>
+        <v>0.5507760028078186</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005845637177632453</v>
+        <v>0.005273481513422687</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0199727071538817</v>
+        <v>0.02375509866323905</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8377270749885881</v>
+        <v>0.8475769778906495</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3246616504423075</v>
+        <v>0.3305100402424808</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3516652517904844</v>
+        <v>0.3105806739543174</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1534101637245241</v>
+        <v>0.1525650036098221</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5997110645370511</v>
+        <v>0.5691331002821014</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6771600955086249</v>
+        <v>0.7342952495835778</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07062611121643603</v>
+        <v>0.2173008249142101</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5320232610366595</v>
+        <v>0.5471365870705251</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4071430167834944</v>
+        <v>0.9507628517226795</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9617024214371959</v>
+        <v>0.9367396222074451</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1026208363917178</v>
+        <v>0.1327674316456441</v>
       </c>
       <c r="U7" t="n">
-        <v>0.209107124600082</v>
+        <v>0.3787835422891311</v>
       </c>
       <c r="V7" t="n">
-        <v>0.299270981996213</v>
+        <v>0.2406395760716554</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4030796195996157</v>
+        <v>0.2862038385418413</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6703385182613515</v>
+        <v>0.7824933722943163</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4283711900401495</v>
+        <v>0.4857611711927247</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2469722016123294</v>
+        <v>0.2689025544097206</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8760462404355179</v>
+        <v>0.8155493050479717</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8610326532128025</v>
+        <v>0.9183170976521671</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5754826856733275</v>
+        <v>0.6554750885270628</v>
       </c>
     </row>
     <row r="8">
@@ -1326,88 +1326,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3545576852648015</v>
+        <v>0.9443383482867785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6731635043871039</v>
+        <v>0.5858933505037465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4377534901301984</v>
+        <v>0.3662591951160222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.940313567774679</v>
+        <v>0.9311913975106135</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7786458684631603</v>
+        <v>0.6944701950873378</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7574931348505228</v>
+        <v>0.7645170108249275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4079151900780285</v>
+        <v>0.4109860270975422</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1008337533374363</v>
+        <v>0.08667143397342668</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4110449075410135</v>
+        <v>0.4303273316131095</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05824050314150171</v>
+        <v>0.0688745187157094</v>
       </c>
       <c r="L8" t="n">
-        <v>0.48739459000706</v>
+        <v>0.4621730912798216</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1332095544029948</v>
+        <v>0.1753037957168214</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8758394479781167</v>
+        <v>0.8285841000516045</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6706890735898017</v>
+        <v>0.5648453383681572</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4560050015574264</v>
+        <v>0.2276362937039207</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0316315409366574</v>
+        <v>0.02050809752179084</v>
       </c>
       <c r="R8" t="n">
-        <v>0.871631580241908</v>
+        <v>0.369542789711911</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9657686082896988</v>
+        <v>0.9317704094593311</v>
       </c>
       <c r="T8" t="n">
-        <v>0.448843222145406</v>
+        <v>0.4225802506203196</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1923263179575458</v>
+        <v>0.4064499980917354</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06381687999387342</v>
+        <v>0.1040709305522606</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6744758265471376</v>
+        <v>0.8465158125267154</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2563533543750572</v>
+        <v>0.2806749194939911</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8196856056781543</v>
+        <v>0.8551818883372211</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8403937695881082</v>
+        <v>0.738988354175136</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1843117391326698</v>
+        <v>0.1988861789336525</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.7029533764570868</v>
+        <v>0.719371173046943</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6018679874780418</v>
+        <v>0.4656816127412289</v>
       </c>
     </row>
     <row r="9">
@@ -1417,88 +1417,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03552379185870463</v>
+        <v>0.2949644561064799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.911332343405681</v>
+        <v>0.9337071674032518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8248826794835201</v>
+        <v>0.8599402608134002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5834817795090077</v>
+        <v>0.6802083169798261</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6930037087091918</v>
+        <v>0.5914073786478635</v>
       </c>
       <c r="G9" t="n">
-        <v>0.411798117805418</v>
+        <v>0.490312549554049</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001895512532837737</v>
+        <v>0.001597629313706152</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02055732973282794</v>
+        <v>0.02975452795577371</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6330379611883219</v>
+        <v>0.6446077615757557</v>
       </c>
       <c r="K9" t="n">
-        <v>0.188883846247992</v>
+        <v>0.1742351287832699</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2253886601268431</v>
+        <v>0.1765913661516325</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4518829334361011</v>
+        <v>0.3761387669549556</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2468684564590886</v>
+        <v>0.140210701137859</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6444945655250567</v>
+        <v>0.4979578834236228</v>
       </c>
       <c r="P9" t="n">
-        <v>0.004018707367806075</v>
+        <v>0.1228597871027327</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.615259971812975</v>
+        <v>0.8522735923865354</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2072102244907419</v>
+        <v>0.411791272203058</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6143233187218253</v>
+        <v>0.7649089314321303</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04862447381392675</v>
+        <v>0.07691511411077033</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2352203495980102</v>
+        <v>0.299931510054451</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3233782172535661</v>
+        <v>0.174923617670891</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3588243869753137</v>
+        <v>0.1565661239306563</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4916842570214499</v>
+        <v>0.6742848174792522</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4672785488050419</v>
+        <v>0.5777892907425948</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5213777440503362</v>
+        <v>0.6368895265167711</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8623271858122347</v>
+        <v>0.8131471594033386</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7440805197903139</v>
+        <v>0.8044233213985293</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2881942385172418</v>
+        <v>0.1771085863011277</v>
       </c>
     </row>
     <row r="10">
@@ -1508,88 +1508,88 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1200833457189325</v>
+        <v>0.3094872731771856</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2535861644640119</v>
+        <v>0.2520074025754242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1900489745920208</v>
+        <v>0.1921585863944154</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6999501416165799</v>
+        <v>0.6463965629424349</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7079541950071176</v>
+        <v>0.7491882889506203</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9525727771934411</v>
+        <v>0.9874266468652719</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007227564248221172</v>
+        <v>0.006616441238185343</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04788338244717909</v>
+        <v>0.05501191355266509</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7322967498115214</v>
+        <v>0.7339787541745466</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2316192305345577</v>
+        <v>0.2296059328048606</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3220095730979029</v>
+        <v>0.2891170290479038</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3041084362314609</v>
+        <v>0.2894522194750258</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2935648934700439</v>
+        <v>0.2692914885099787</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7974510233154943</v>
+        <v>0.8648820522586941</v>
       </c>
       <c r="P10" t="n">
-        <v>0.006082724587204545</v>
+        <v>0.05189154150701456</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3818594096547776</v>
+        <v>0.4618071378665169</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5206905958838728</v>
+        <v>0.8206283842248843</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6314423352470668</v>
+        <v>0.5574622262168101</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2730722497249047</v>
+        <v>0.3199237717568554</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3291570266640141</v>
+        <v>0.4363721211989354</v>
       </c>
       <c r="V10" t="n">
-        <v>0.09886967847624561</v>
+        <v>0.07450600023249027</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1637737737863772</v>
+        <v>0.1065009152308788</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8510085176512774</v>
+        <v>0.9516500165764606</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5006020871664975</v>
+        <v>0.5516217434159654</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5484288458821769</v>
+        <v>0.5899499432740904</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7405248155782722</v>
+        <v>0.7055047782757722</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.4528350832777417</v>
+        <v>0.481710920557384</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5654625796273958</v>
+        <v>0.656552095682948</v>
       </c>
     </row>
     <row r="11">
@@ -1599,88 +1599,88 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2932119518015475</v>
+        <v>0.6754171934012092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3231392623804752</v>
+        <v>0.4142713070739761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2691426986776804</v>
+        <v>0.3497490153605298</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4762786237246357</v>
+        <v>0.5697041577715707</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2035117213010891</v>
+        <v>0.2098522125002719</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8139809380427941</v>
+        <v>0.952289293605834</v>
       </c>
       <c r="H11" t="n">
-        <v>0.559030928414487</v>
+        <v>0.5211712382010933</v>
       </c>
       <c r="I11" t="n">
-        <v>0.824120793924194</v>
+        <v>0.8733601830188018</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02020801372474004</v>
+        <v>0.02329810459796782</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3018286730426317</v>
+        <v>0.3309088387704531</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4475633053467197</v>
+        <v>0.5176291460227789</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2978887751143373</v>
+        <v>0.2891307398793641</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03493665705805638</v>
+        <v>0.04547812825201766</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02121077326648397</v>
+        <v>0.0251370760856921</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6068745877746162</v>
+        <v>0.7012224860521469</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2837042588064748</v>
+        <v>0.5023770593460513</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2192036336134589</v>
+        <v>0.6925659826273691</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5989606285513209</v>
+        <v>0.7272434963618692</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3655444891876464</v>
+        <v>0.4923074357986774</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03113051267870156</v>
+        <v>0.1829672187658536</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6474802872358385</v>
+        <v>0.5710568937525544</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7168049688742888</v>
+        <v>0.8941637735836978</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6166802920917143</v>
+        <v>0.7623746243058332</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.434338293951347</v>
+        <v>0.5135954764350981</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1736131028729024</v>
+        <v>0.184813924132411</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9141722804483261</v>
+        <v>0.9648845223308065</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5692625941879466</v>
+        <v>0.6608918047964716</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7938968967303132</v>
+        <v>0.7665686816997782</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.1314353532120548</v>
+        <v>0.2435296378992828</v>
       </c>
     </row>
     <row r="3">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1607302509912042</v>
+        <v>0.1641786527814016</v>
       </c>
     </row>
     <row r="4">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1716009923511378</v>
+        <v>0.1542563859870855</v>
       </c>
     </row>
     <row r="5">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1898313285451632</v>
+        <v>0.188347773887227</v>
       </c>
     </row>
     <row r="6">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2260255802634429</v>
+        <v>0.2234298584390778</v>
       </c>
     </row>
     <row r="7">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.106789534125648</v>
+        <v>0.1006958590885076</v>
       </c>
     </row>
     <row r="8">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2531958974603025</v>
+        <v>0.2589627628479452</v>
       </c>
     </row>
     <row r="9">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1346273810804107</v>
+        <v>0.1266937968775598</v>
       </c>
     </row>
     <row r="10">
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1931755423556811</v>
+        <v>0.1902712956619745</v>
       </c>
     </row>
     <row r="11">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1667515480541235</v>
+        <v>0.1554560065858979</v>
       </c>
     </row>
   </sheetData>

--- a/DataIntermediate/resultados_regresiones.xlsx
+++ b/DataIntermediate/resultados_regresiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,107 +431,107 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.4030976049049029</v>
+        <v>0.4633273674048334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2892992812609153</v>
+        <v>0.5395591556984121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3404847182103248</v>
+        <v>0.8819478391372708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3326554295679346</v>
+        <v>0.9812891188746188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3595556653328901</v>
+        <v>0.5480732355096891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3872376226745848</v>
+        <v>0.8500998022090903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2903928263120256</v>
+        <v>0.7682454782464296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4152753050597068</v>
+        <v>0.6888520224383022</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3109068240986995</v>
+        <v>0.7945090623371044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3610734442332768</v>
+        <v>0.8226839841310143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.333602005196685</v>
+        <v>0.4131713856471827</v>
       </c>
     </row>
   </sheetData>
@@ -560,107 +560,107 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2435296378992828</v>
+        <v>0.3198604260180067</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.099309980211853</v>
+        <v>0.4164710092019479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1641786527814016</v>
+        <v>0.8503893406888184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1542563859870855</v>
+        <v>0.9762872001579327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.188347773887227</v>
+        <v>0.4272611301508932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2234298584390778</v>
+        <v>0.8100274721065699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1006958590885076</v>
+        <v>0.706291299163792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2589627628479452</v>
+        <v>0.6056738502188385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1266937968775598</v>
+        <v>0.7395758413777165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1902712956619745</v>
+        <v>0.7752826729581171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1554560065858979</v>
+        <v>0.2562964095330632</v>
       </c>
     </row>
   </sheetData>
@@ -689,998 +689,998 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.8417814867328168</v>
+        <v>0.3421365240818492</v>
       </c>
       <c r="C1" t="n">
-        <v>0.2636718498637532</v>
+        <v>0.4792351740960904</v>
       </c>
       <c r="D1" t="n">
-        <v>0.3491375520943799</v>
+        <v>0.5998977636404981</v>
       </c>
       <c r="E1" t="n">
-        <v>0.001831926995122671</v>
+        <v>0.0626961849938595</v>
       </c>
       <c r="F1" t="n">
-        <v>0.02952172182074858</v>
+        <v>0.3565450246972347</v>
       </c>
       <c r="G1" t="n">
-        <v>0.007424627989425388</v>
+        <v>0.007632972279246885</v>
       </c>
       <c r="H1" t="n">
-        <v>0.205761112236049</v>
+        <v>0.9234243431076004</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5190950201303681</v>
+        <v>0.5255868743490872</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6319878365234823</v>
+        <v>0.6135030204607452</v>
       </c>
       <c r="K1" t="n">
-        <v>0.799061303763383</v>
+        <v>0.7579795938130727</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6560588825523056</v>
+        <v>0.4749784088998333</v>
       </c>
       <c r="M1" t="n">
-        <v>0.1177474474192239</v>
+        <v>0.121462017089854</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2879516253165925</v>
+        <v>0.004961717486983218</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6800990368302656</v>
+        <v>0.1301029421891206</v>
       </c>
       <c r="P1" t="n">
-        <v>0.004373669065717612</v>
+        <v>7.657097468806985e-05</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.5513279371294626</v>
+        <v>0.1573070215609135</v>
       </c>
       <c r="R1" t="n">
-        <v>0.0001786393149179287</v>
+        <v>8.313302457523818e-08</v>
       </c>
       <c r="S1" t="n">
-        <v>0.007915089335447351</v>
+        <v>0.6529726821297168</v>
       </c>
       <c r="T1" t="n">
-        <v>0.2875377601078369</v>
+        <v>0.08147853415796026</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0070319754608143</v>
+        <v>0.0001710031459478299</v>
       </c>
       <c r="V1" t="n">
-        <v>0.4518882736233095</v>
+        <v>0.322166787522763</v>
       </c>
       <c r="W1" t="n">
-        <v>0.2778554665154102</v>
+        <v>0.07901134182893664</v>
       </c>
       <c r="X1" t="n">
-        <v>0.3721994913173508</v>
+        <v>0.2001541420172876</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.5799295172998659</v>
+        <v>0.9231378385028729</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.003294461839891509</v>
+        <v>0.005469225972066617</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.03885444649476023</v>
+        <v>0.1093177874050069</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.4111553952455109</v>
+        <v>0.3921592542454527</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.7818987283349808</v>
+        <v>0.4079668199549679</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02375043742969527</v>
+        <v>0.4617375079216443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1073572271793384</v>
+        <v>0.6754481278837237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2067849033913336</v>
+        <v>0.7360495819478456</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04766549373645818</v>
+        <v>0.8656791052568094</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001630250093145511</v>
+        <v>0.3925134245427072</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04553711226085804</v>
+        <v>0.1793188299540824</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1859859845545214</v>
+        <v>0.001344425471330976</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5964220914094107</v>
+        <v>0.2651008343152431</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8387939777811376</v>
+        <v>0.2196485371510703</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5095237825369723</v>
+        <v>0.3332907581943552</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5732824205408686</v>
+        <v>0.5997222851658492</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04331917708020284</v>
+        <v>0.3441554682060217</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9224982834310611</v>
+        <v>0.8887111170473974</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1051921292270367</v>
+        <v>0.1435636078524599</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3642611122348743</v>
+        <v>0.4014119400688461</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3434480757402509</v>
+        <v>0.288882061942818</v>
       </c>
       <c r="R2" t="n">
-        <v>0.891055936457596</v>
+        <v>0.7038132726615085</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008314958177436054</v>
+        <v>0.09355234271181592</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7470198061058191</v>
+        <v>0.08351788526353257</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9185833435084131</v>
+        <v>0.472646860352455</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4310305040180122</v>
+        <v>0.9588971187252133</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7507388546658559</v>
+        <v>0.8133345799139698</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1615298508565926</v>
+        <v>0.06651271459071599</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3297530858597806</v>
+        <v>0.1060610771071898</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5198003528585318</v>
+        <v>0.2622786350465884</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1834255894586183</v>
+        <v>0.3119054028142243</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7896326947511075</v>
+        <v>0.0007431937356608484</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4948963109313614</v>
+        <v>0.4759469552451894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5244635428068976</v>
+        <v>0.3814732505448897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4833578709185503</v>
+        <v>0.2598690481062516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4945863166239952</v>
+        <v>0.2915237885648231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7392169627053686</v>
+        <v>0.4421695115283433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7700725278547405</v>
+        <v>0.5472405905126103</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5417686205047205</v>
+        <v>0.5093614609274724</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9592899506349364</v>
+        <v>0.4312393111024817</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1918495114186566</v>
+        <v>0.3935682029083011</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05999013637522568</v>
+        <v>0.4690399810630936</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5318941978197615</v>
+        <v>0.2305771657283988</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5182424825967915</v>
+        <v>0.442955903586877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7368435568380391</v>
+        <v>0.009579845369621146</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6819007309191556</v>
+        <v>0.05102893455979246</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07651620282420128</v>
+        <v>0.9632211901946491</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1742364844355967</v>
+        <v>0.3225227630399323</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5439639760167427</v>
+        <v>0.3144793822998884</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3499262522411721</v>
+        <v>0.7236820649019283</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9879805070976364</v>
+        <v>0.9323236623333586</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04553170347304514</v>
+        <v>0.04674281184491483</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1359252229724406</v>
+        <v>0.3994655933206824</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5184413777611927</v>
+        <v>0.3657534238015197</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2512783321987999</v>
+        <v>0.758069914680408</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9232696201353147</v>
+        <v>0.41180283921631</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6002129334558687</v>
+        <v>0.5058172171582347</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1117077736217082</v>
+        <v>0.1216338687511994</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9742033261554052</v>
+        <v>0.3775690285010123</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02735232514285601</v>
+        <v>1.444493689321106e-20</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6161221705900495</v>
+        <v>4.091798538683697e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3999929792663647</v>
+        <v>0.08645183461596967</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5948492503645508</v>
+        <v>0.5523702429335864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5009214037373009</v>
+        <v>0.2799830759382781</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5008845239934936</v>
+        <v>0.8373473395063157</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4348552374385555</v>
+        <v>0.4882599165601657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.274347571350979</v>
+        <v>0.3052271024778679</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1533272998406763</v>
+        <v>0.5964427512677146</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04739015087125187</v>
+        <v>0.7150448452177762</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6101441316730711</v>
+        <v>0.5909765862254097</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3575967755612792</v>
+        <v>0.7119589062444243</v>
       </c>
       <c r="L4" t="n">
-        <v>0.850797150307895</v>
+        <v>0.9590658084817818</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3746069718001762</v>
+        <v>0.7884227398586037</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4831986327906239</v>
+        <v>0.03084410366388594</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2714807508987917</v>
+        <v>0.2368946096887569</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7634342598949686</v>
+        <v>0.1346461962083894</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.325910639393034</v>
+        <v>0.9477107048669924</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9511492261849811</v>
+        <v>0.3315210232860727</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4295554436179833</v>
+        <v>0.1891780788359693</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5093743523061263</v>
+        <v>0.864645834525639</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4459791346892137</v>
+        <v>0.8297800381040491</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001850378147133524</v>
+        <v>0.7061837249657019</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3099528511930414</v>
+        <v>7.177487039047812e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04465472538891131</v>
+        <v>0.3106183962031831</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4644671381394591</v>
+        <v>0.3763677210110079</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3826941805193546</v>
+        <v>0.01838649777565866</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8667734416878273</v>
+        <v>0.6642338478257224</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.548069743751868</v>
+        <v>6.32718449318427e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1008714083551703</v>
+        <v>6.700844019422369e-73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9676879151660709</v>
+        <v>0.1701245555615314</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8214966880894973</v>
+        <v>0.5594694810269332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.88698264727557</v>
+        <v>0.371773029800276</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5678818407252302</v>
+        <v>0.902234533714602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8387188959406575</v>
+        <v>0.9492018091479069</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5604100332889874</v>
+        <v>0.7292741268714347</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6174231498603775</v>
+        <v>0.1690947683785725</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4156261258701593</v>
+        <v>0.3426830339282028</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09591515289381763</v>
+        <v>0.004828913334953923</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000959474777527617</v>
+        <v>0.2807396124397254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7593440963481732</v>
+        <v>0.01356996864592046</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2521246494872548</v>
+        <v>0.3018473148887001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.779391731382441</v>
+        <v>0.7286135109861676</v>
       </c>
       <c r="O5" t="n">
-        <v>0.757536118087424</v>
+        <v>0.807507342833221</v>
       </c>
       <c r="P5" t="n">
-        <v>0.469486688053309</v>
+        <v>0.5400134291561995</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7736265417723436</v>
+        <v>0.8875522633603193</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6274156757839338</v>
+        <v>0.3191900248228388</v>
       </c>
       <c r="S5" t="n">
-        <v>0.781672554571489</v>
+        <v>0.476190351472246</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7770169236363826</v>
+        <v>0.08906787149358462</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04070206783086376</v>
+        <v>0.2795040793537069</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5010823966092123</v>
+        <v>0.7323812618305328</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3909928104655345</v>
+        <v>0.9144982762616676</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6392350295824976</v>
+        <v>0.4312692291708519</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9112744399661284</v>
+        <v>0.6500227746752287</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5172361175489117</v>
+        <v>0.03408168098392114</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4445103702346217</v>
+        <v>0.5991987796008621</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.08301711590572375</v>
+        <v>8.636579112232874e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03572016107851608</v>
+        <v>0.1855363672387489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3147774005691378</v>
+        <v>0.8056969614253908</v>
       </c>
       <c r="C6" t="n">
-        <v>0.429867423377859</v>
+        <v>0.2073786933939808</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3161471218721142</v>
+        <v>0.1923656714354257</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9802431286901653</v>
+        <v>0.2389692668328486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7949481060878767</v>
+        <v>0.7591740904626313</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9492069433488077</v>
+        <v>0.2695953840254369</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01099640448253675</v>
+        <v>0.8662801731500269</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1514749943148615</v>
+        <v>0.4134027726403816</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6903284920472303</v>
+        <v>0.03667445279739728</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08803560465058113</v>
+        <v>0.2142986103303443</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3440693855700289</v>
+        <v>0.8360214717542505</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4102139721778172</v>
+        <v>0.6976961266674331</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02590616505808611</v>
+        <v>0.09468918878562887</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7750633966063002</v>
+        <v>0.001458413803564662</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01874569565963307</v>
+        <v>0.3757708685951415</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4656361669192324</v>
+        <v>0.6692148402849252</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5689375195711009</v>
+        <v>0.06258047097020156</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7105582192675013</v>
+        <v>0.3075161972361275</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5306707964129846</v>
+        <v>0.6725729749315673</v>
       </c>
       <c r="U6" t="n">
-        <v>0.498652537551637</v>
+        <v>0.0685724422733041</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1007587305762192</v>
+        <v>0.9306800355947915</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08001220489750734</v>
+        <v>0.7287240343450023</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7996792698424573</v>
+        <v>0.883473901389882</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7602352039454956</v>
+        <v>0.8297362412036643</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7699244417042836</v>
+        <v>0.2159812499964698</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2925175752066057</v>
+        <v>0.03238438114822417</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8650224610367561</v>
+        <v>8.772307635455194e-09</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4291683765846607</v>
+        <v>1.999605984918293e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2920738398956164</v>
+        <v>0.3567932474828097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3821186781828541</v>
+        <v>0.8030450440875914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2961824452321424</v>
+        <v>0.7220527479962915</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8250128038368095</v>
+        <v>0.5892638949981959</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7999982958413765</v>
+        <v>0.8134903196844839</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5507760028078186</v>
+        <v>0.1261006376866817</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005273481513422687</v>
+        <v>0.2015563036437797</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02375509866323905</v>
+        <v>0.560405691636321</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8475769778906495</v>
+        <v>0.3437251785953537</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3305100402424808</v>
+        <v>0.8610538229625149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3105806739543174</v>
+        <v>0.6080852377422319</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1525650036098221</v>
+        <v>0.6120908344239266</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5691331002821014</v>
+        <v>0.07748482679059898</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7342952495835778</v>
+        <v>0.06572698759990515</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2173008249142101</v>
+        <v>0.6464739855089402</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5471365870705251</v>
+        <v>0.5018401640261907</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9507628517226795</v>
+        <v>0.07080515701995684</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9367396222074451</v>
+        <v>0.1776238784382534</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1327674316456441</v>
+        <v>0.5130009126173877</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3787835422891311</v>
+        <v>0.2549483502280346</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2406395760716554</v>
+        <v>0.8056420668446843</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2862038385418413</v>
+        <v>0.644496091776397</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7824933722943163</v>
+        <v>0.6836094938915365</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4857611711927247</v>
+        <v>0.6427408691191179</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2689025544097206</v>
+        <v>0.01349148327336831</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8155493050479717</v>
+        <v>0.1999773411446361</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9183170976521671</v>
+        <v>1.622478239669297e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6554750885270628</v>
+        <v>2.612598574594807e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9443383482867785</v>
+        <v>0.4115994861800822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5858933505037465</v>
+        <v>0.7757637088424516</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3662591951160222</v>
+        <v>0.6418068848474878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9311913975106135</v>
+        <v>0.7163827497418234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6944701950873378</v>
+        <v>0.4489002768766295</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7645170108249275</v>
+        <v>0.8105319144909434</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4109860270975422</v>
+        <v>0.5570602530567418</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08667143397342668</v>
+        <v>0.7191200932601275</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4303273316131095</v>
+        <v>0.02717509897641077</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0688745187157094</v>
+        <v>0.8161958324596255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4621730912798216</v>
+        <v>0.7022284690221128</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1753037957168214</v>
+        <v>0.4474768566436276</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8285841000516045</v>
+        <v>0.100436502968198</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5648453383681572</v>
+        <v>0.02632275905576629</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2276362937039207</v>
+        <v>0.7046530216050495</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02050809752179084</v>
+        <v>0.01196473017515914</v>
       </c>
       <c r="R8" t="n">
-        <v>0.369542789711911</v>
+        <v>0.1010517329839534</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9317704094593311</v>
+        <v>0.33060229164488</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4225802506203196</v>
+        <v>0.1486087618597643</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4064499980917354</v>
+        <v>0.3268373961116767</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1040709305522606</v>
+        <v>0.5546803909435412</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8465158125267154</v>
+        <v>0.1263585747974037</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2806749194939911</v>
+        <v>0.9632120298643718</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8551818883372211</v>
+        <v>0.7250387988150528</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.738988354175136</v>
+        <v>0.1724170028515312</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1988861789336525</v>
+        <v>0.07238056376335812</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.719371173046943</v>
+        <v>2.775667982713727e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4656816127412289</v>
+        <v>0.5479289095884168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2949644561064799</v>
+        <v>0.5375206955677443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9337071674032518</v>
+        <v>0.4014567140135518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8599402608134002</v>
+        <v>0.2950979147920776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6802083169798261</v>
+        <v>0.1965427133780578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5914073786478635</v>
+        <v>0.8018101863855589</v>
       </c>
       <c r="G9" t="n">
-        <v>0.490312549554049</v>
+        <v>0.12164951401738</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001597629313706152</v>
+        <v>0.3046025217605046</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02975452795577371</v>
+        <v>0.7840240347134099</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6446077615757557</v>
+        <v>0.2229826713329662</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1742351287832699</v>
+        <v>0.258885779791827</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1765913661516325</v>
+        <v>0.859301935003179</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3761387669549556</v>
+        <v>0.8811305265133358</v>
       </c>
       <c r="N9" t="n">
-        <v>0.140210701137859</v>
+        <v>0.08790443615382114</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4979578834236228</v>
+        <v>0.01733894209014427</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1228597871027327</v>
+        <v>0.5369970457578515</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8522735923865354</v>
+        <v>0.8500906587803803</v>
       </c>
       <c r="R9" t="n">
-        <v>0.411791272203058</v>
+        <v>0.1030626924833265</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7649089314321303</v>
+        <v>0.1404853399033127</v>
       </c>
       <c r="T9" t="n">
-        <v>0.07691511411077033</v>
+        <v>0.5564761765266257</v>
       </c>
       <c r="U9" t="n">
-        <v>0.299931510054451</v>
+        <v>0.2014936307416175</v>
       </c>
       <c r="V9" t="n">
-        <v>0.174923617670891</v>
+        <v>0.5603811240328376</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1565661239306563</v>
+        <v>0.7434345454992632</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6742848174792522</v>
+        <v>0.6658281313857943</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5777892907425948</v>
+        <v>0.6589217935327607</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6368895265167711</v>
+        <v>0.1521611062215207</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8131471594033386</v>
+        <v>0.1387657812597863</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8044233213985293</v>
+        <v>7.556368031695475e-07</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1771085863011277</v>
+        <v>2.529528255715247e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3094872731771856</v>
+        <v>0.5175485781534683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2520074025754242</v>
+        <v>0.5038352228938634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1921585863944154</v>
+        <v>0.4335550967113423</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6463965629424349</v>
+        <v>0.4385703897304412</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7491882889506203</v>
+        <v>0.6348278772631457</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9874266468652719</v>
+        <v>0.1446665454393009</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006616441238185343</v>
+        <v>0.2640272958476163</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05501191355266509</v>
+        <v>0.7932221271293037</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7339787541745466</v>
+        <v>0.160263495889918</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2296059328048606</v>
+        <v>0.6943701507097841</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2891170290479038</v>
+        <v>0.7306460657561724</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2894522194750258</v>
+        <v>0.5684725160048669</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2692914885099787</v>
+        <v>0.07040260345691876</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8648820522586941</v>
+        <v>0.02242164012457474</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05189154150701456</v>
+        <v>0.4627012121149949</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4618071378665169</v>
+        <v>0.5641877649784863</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8206283842248843</v>
+        <v>0.04289377010438441</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5574622262168101</v>
+        <v>0.1997035298259317</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3199237717568554</v>
+        <v>0.5285372530748933</v>
       </c>
       <c r="U10" t="n">
-        <v>0.4363721211989354</v>
+        <v>0.1295472229323001</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07450600023249027</v>
+        <v>0.9258958125038019</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1065009152308788</v>
+        <v>0.7412510245406214</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9516500165764606</v>
+        <v>0.7351742059655828</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5516217434159654</v>
+        <v>0.7322868135211028</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5899499432740904</v>
+        <v>0.03659124338294278</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7055047782757722</v>
+        <v>0.06582499182997975</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.481710920557384</v>
+        <v>3.925306374109822e-09</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.656552095682948</v>
+        <v>4.535781206400766e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6754171934012092</v>
+        <v>0.2813166567192518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4142713070739761</v>
+        <v>0.05706193017401712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3497490153605298</v>
+        <v>0.2104868481130953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5697041577715707</v>
+        <v>0.467462956211666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2098522125002719</v>
+        <v>0.1891594058137707</v>
       </c>
       <c r="G11" t="n">
-        <v>0.952289293605834</v>
+        <v>0.2894205755762488</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5211712382010933</v>
+        <v>0.5261219625037974</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8733601830188018</v>
+        <v>0.455985795078706</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02329810459796782</v>
+        <v>0.7106955424855185</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3309088387704531</v>
+        <v>0.003909542664758058</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5176291460227789</v>
+        <v>0.07019473771107863</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2891307398793641</v>
+        <v>0.1624862806028097</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04547812825201766</v>
+        <v>0.1453422968003023</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0251370760856921</v>
+        <v>0.2284810908821382</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7012224860521469</v>
+        <v>0.8725893118932303</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5023770593460513</v>
+        <v>0.4908725049340531</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6925659826273691</v>
+        <v>0.8700730786784685</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7272434963618692</v>
+        <v>0.8740036075863031</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4923074357986774</v>
+        <v>0.9933288133692233</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1829672187658536</v>
+        <v>0.1234524076576791</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5710568937525544</v>
+        <v>0.76282725621804</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8941637735836978</v>
+        <v>0.7642616321208205</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7623746243058332</v>
+        <v>0.6399722675930642</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5135954764350981</v>
+        <v>0.7034620901945985</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.184813924132411</v>
+        <v>0.5021981111053888</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9648845223308065</v>
+        <v>0.3265103906561823</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6608918047964716</v>
+        <v>0.3954330108713963</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7665686816997782</v>
+        <v>0.1429167531532488</v>
       </c>
     </row>
   </sheetData>
@@ -1709,97 +1709,107 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2435296378992828</v>
+        <v>0.3198604260180067</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4164710092019479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1641786527814016</v>
+        <v>0.8503893406888184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1542563859870855</v>
+        <v>0.9762872001579327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.188347773887227</v>
+        <v>0.4272611301508932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2234298584390778</v>
+        <v>0.8100274721065699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1006958590885076</v>
+        <v>0.706291299163792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2589627628479452</v>
+        <v>0.6056738502188385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1266937968775598</v>
+        <v>0.7395758413777165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1902712956619745</v>
+        <v>0.7752826729581171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1554560065858979</v>
+        <v>0.2562964095330632</v>
       </c>
     </row>
   </sheetData>
